--- a/100runs/run063/NotionalETEOutput063.xlsx
+++ b/100runs/run063/NotionalETEOutput063.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="19">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,22 +49,28 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
-  </si>
-  <si>
     <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_270.MISSILE_HIGHWIND_270</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_309.MISSILE_SOMERSAULT_309</t>
+    <t>MISSILE_SOMERSAULT_125.MISSILE_SOMERSAULT_125</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_BRAVER_426.MISSILE_BRAVER_426</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_358.MISSILE_SOMERSAULT_358</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT_0.MISSILE_SOMERSAULT_0</t>
   </si>
   <si>
     <t>MISSILE_SOMERSAULT</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -474,28 +480,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>134.3170351732437</v>
+        <v>1116579.47096076</v>
       </c>
       <c r="G2">
-        <v>-104.240074151646</v>
+        <v>4841122.079814992</v>
       </c>
       <c r="H2">
-        <v>1129.898670487662</v>
+        <v>3985230.698671289</v>
       </c>
       <c r="I2">
-        <v>-1247.648967340572</v>
+        <v>1114861.704898578</v>
       </c>
       <c r="J2">
-        <v>2965.567858245082</v>
+        <v>4843227.860731198</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984368.573338641</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -509,28 +515,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>134.3170351732437</v>
+        <v>1116579.47096076</v>
       </c>
       <c r="G3">
-        <v>-104.240074151646</v>
+        <v>4841122.079814992</v>
       </c>
       <c r="H3">
-        <v>1129.898670487662</v>
+        <v>3985230.698671289</v>
       </c>
       <c r="I3">
-        <v>-1223.017054563806</v>
+        <v>1114891.318904271</v>
       </c>
       <c r="J3">
-        <v>2893.428065083501</v>
+        <v>4843179.209096893</v>
       </c>
       <c r="K3">
-        <v>348.7255135093813</v>
+        <v>3984672.36919735</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -544,28 +550,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>134.3170351732437</v>
+        <v>1116579.47096076</v>
       </c>
       <c r="G4">
-        <v>-104.240074151646</v>
+        <v>4841122.079814992</v>
       </c>
       <c r="H4">
-        <v>1129.898670487662</v>
+        <v>3985230.698671289</v>
       </c>
       <c r="I4">
-        <v>-1197.778603595856</v>
+        <v>1114921.662127611</v>
       </c>
       <c r="J4">
-        <v>2821.28827192192</v>
+        <v>4843130.557462588</v>
       </c>
       <c r="K4">
-        <v>680.0619744148169</v>
+        <v>3984961.016401995</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -579,28 +585,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>134.3170351732437</v>
+        <v>1116579.47096076</v>
       </c>
       <c r="G5">
-        <v>-104.240074151646</v>
+        <v>4841122.079814992</v>
       </c>
       <c r="H5">
-        <v>1129.898670487662</v>
+        <v>3985230.698671289</v>
       </c>
       <c r="I5">
-        <v>-1171.91867899177</v>
+        <v>1114952.75252491</v>
       </c>
       <c r="J5">
-        <v>2749.148478760338</v>
+        <v>4843081.905828284</v>
       </c>
       <c r="K5">
-        <v>994.009382716309</v>
+        <v>3985234.514952573</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -614,28 +620,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>134.3170351732437</v>
+        <v>1116579.47096076</v>
       </c>
       <c r="G6">
-        <v>-104.240074151646</v>
+        <v>4841122.079814992</v>
       </c>
       <c r="H6">
-        <v>1129.898670487662</v>
+        <v>3985230.698671289</v>
       </c>
       <c r="I6">
-        <v>-1145.421977535002</v>
+        <v>1114984.60849464</v>
       </c>
       <c r="J6">
-        <v>2677.008685598757</v>
+        <v>4843033.25419398</v>
       </c>
       <c r="K6">
-        <v>1290.567738413856</v>
+        <v>3985492.864849086</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -649,28 +655,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>134.3170351732437</v>
+        <v>1116579.47096076</v>
       </c>
       <c r="G7">
-        <v>-104.240074151646</v>
+        <v>4841122.079814992</v>
       </c>
       <c r="H7">
-        <v>1129.898670487662</v>
+        <v>3985230.698671289</v>
       </c>
       <c r="I7">
-        <v>-1118.27281918138</v>
+        <v>1115017.248888317</v>
       </c>
       <c r="J7">
-        <v>2604.868892437175</v>
+        <v>4842984.602559676</v>
       </c>
       <c r="K7">
-        <v>1569.73704150746</v>
+        <v>3985736.066091534</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -684,28 +690,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>134.3170351732437</v>
+        <v>1116579.47096076</v>
       </c>
       <c r="G8">
-        <v>-104.240074151646</v>
+        <v>4841122.079814992</v>
       </c>
       <c r="H8">
-        <v>1129.898670487662</v>
+        <v>3985230.698671289</v>
       </c>
       <c r="I8">
-        <v>-1090.455137780067</v>
+        <v>1115050.693021661</v>
       </c>
       <c r="J8">
-        <v>2532.729099275594</v>
+        <v>4842935.950925372</v>
       </c>
       <c r="K8">
-        <v>1831.517291997119</v>
+        <v>3985964.118679916</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,28 +725,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>134.3170351732437</v>
+        <v>1116579.47096076</v>
       </c>
       <c r="G9">
-        <v>-104.240074151646</v>
+        <v>4841122.079814992</v>
       </c>
       <c r="H9">
-        <v>1129.898670487662</v>
+        <v>3985230.698671289</v>
       </c>
       <c r="I9">
-        <v>-1061.952471566045</v>
+        <v>1115084.960686019</v>
       </c>
       <c r="J9">
-        <v>2460.589306114012</v>
+        <v>4842887.299291068</v>
       </c>
       <c r="K9">
-        <v>2075.908489882834</v>
+        <v>3986177.022614232</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -754,28 +760,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>134.3170351732437</v>
+        <v>1116579.47096076</v>
       </c>
       <c r="G10">
-        <v>-87.02710374415905</v>
+        <v>4841138.592625732</v>
       </c>
       <c r="H10">
-        <v>1129.898670487662</v>
+        <v>3985230.698671289</v>
       </c>
       <c r="I10">
-        <v>-1032.747953418475</v>
+        <v>1115120.072160087</v>
       </c>
       <c r="J10">
-        <v>2388.449512952431</v>
+        <v>4842838.647656763</v>
       </c>
       <c r="K10">
-        <v>2302.910635164603</v>
+        <v>3986374.777894483</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,28 +795,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>104.2456882440974</v>
+        <v>1116530.790354826</v>
       </c>
       <c r="G11">
-        <v>-69.81413333667211</v>
+        <v>4841155.10543647</v>
       </c>
       <c r="H11">
-        <v>1392.027558889579</v>
+        <v>3985429.953196575</v>
       </c>
       <c r="I11">
-        <v>-1002.824300879184</v>
+        <v>1115156.048221902</v>
       </c>
       <c r="J11">
-        <v>2316.30971979085</v>
+        <v>4842789.996022459</v>
       </c>
       <c r="K11">
-        <v>2512.523727842428</v>
+        <v>3986557.384520669</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,28 +830,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>86.58028046483025</v>
+        <v>1116502.192940923</v>
       </c>
       <c r="G12">
-        <v>-52.60116292918519</v>
+        <v>4841171.61824721</v>
       </c>
       <c r="H12">
-        <v>1548.164930602053</v>
+        <v>3985548.639382099</v>
       </c>
       <c r="I12">
-        <v>-972.1638059253696</v>
+        <v>1115192.910161142</v>
       </c>
       <c r="J12">
-        <v>2244.169926629269</v>
+        <v>4842741.344388154</v>
       </c>
       <c r="K12">
-        <v>2704.74776791631</v>
+        <v>3986724.842492789</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -859,28 +865,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>75.42857907467072</v>
+        <v>1116484.140155254</v>
       </c>
       <c r="G13">
-        <v>-35.38819252169826</v>
+        <v>4841188.13105795</v>
       </c>
       <c r="H13">
-        <v>1659.745757243435</v>
+        <v>3985633.4563772</v>
       </c>
       <c r="I13">
-        <v>-940.7483244904548</v>
+        <v>1115230.679791723</v>
       </c>
       <c r="J13">
-        <v>2172.030133467687</v>
+        <v>4842692.69275385</v>
       </c>
       <c r="K13">
-        <v>2879.582755386248</v>
+        <v>3986877.151810843</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -894,28 +900,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>67.65142779258696</v>
+        <v>1116471.55021581</v>
       </c>
       <c r="G14">
-        <v>-18.17522211421133</v>
+        <v>4841204.643868688</v>
       </c>
       <c r="H14">
-        <v>1746.633687169607</v>
+        <v>3985699.503325844</v>
       </c>
       <c r="I14">
-        <v>-908.5592657269186</v>
+        <v>1115269.37946471</v>
       </c>
       <c r="J14">
-        <v>2099.890340306105</v>
+        <v>4842644.041119547</v>
       </c>
       <c r="K14">
-        <v>3037.028690252241</v>
+        <v>3987014.312474832</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -929,28 +935,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>61.84944003704468</v>
+        <v>1116462.157743959</v>
       </c>
       <c r="G15">
-        <v>-0.9622517067244098</v>
+        <v>4841221.156679429</v>
       </c>
       <c r="H15">
-        <v>1817.801641421317</v>
+        <v>3985753.600899853</v>
       </c>
       <c r="I15">
-        <v>-875.5775810047214</v>
+        <v>1115309.032081541</v>
       </c>
       <c r="J15">
-        <v>2027.750547144524</v>
+        <v>4842595.389485243</v>
       </c>
       <c r="K15">
-        <v>3177.085572514288</v>
+        <v>3987136.324484756</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -964,28 +970,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>57.31309583578014</v>
+        <v>1116454.814142591</v>
       </c>
       <c r="G16">
-        <v>16.25071870076252</v>
+        <v>4841237.669490168</v>
       </c>
       <c r="H16">
-        <v>1878.075703663645</v>
+        <v>3985799.417596106</v>
       </c>
       <c r="I16">
-        <v>-841.7837526388338</v>
+        <v>1115349.661107582</v>
       </c>
       <c r="J16">
-        <v>1955.610753982943</v>
+        <v>4842546.737850938</v>
       </c>
       <c r="K16">
-        <v>3299.753402172392</v>
+        <v>3987243.187840615</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -999,28 +1005,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>53.64286307490521</v>
+        <v>1116448.872634379</v>
       </c>
       <c r="G17">
-        <v>33.46368910824945</v>
+        <v>4841254.182300908</v>
       </c>
       <c r="H17">
-        <v>1930.352475116153</v>
+        <v>3985839.155235642</v>
       </c>
       <c r="I17">
-        <v>-807.1577823391879</v>
+        <v>1115391.290586011</v>
       </c>
       <c r="J17">
-        <v>1883.470960821362</v>
+        <v>4842498.086216633</v>
       </c>
       <c r="K17">
-        <v>3405.032179226552</v>
+        <v>3987334.902542407</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1034,28 +1040,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>50.59526210618318</v>
+        <v>1116443.939065485</v>
       </c>
       <c r="G18">
-        <v>50.67665951573638</v>
+        <v>4841270.695111647</v>
       </c>
       <c r="H18">
-        <v>1976.507691328838</v>
+        <v>3985874.239639165</v>
       </c>
       <c r="I18">
-        <v>-771.679179376222</v>
+        <v>1115433.945152047</v>
       </c>
       <c r="J18">
-        <v>1811.33116765978</v>
+        <v>4842449.434582329</v>
       </c>
       <c r="K18">
-        <v>3492.921903676767</v>
+        <v>3987411.468590135</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1069,28 +1075,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>48.01264958867304</v>
+        <v>1116439.758237053</v>
       </c>
       <c r="G19">
-        <v>67.88962992322332</v>
+        <v>4841287.207922386</v>
       </c>
       <c r="H19">
-        <v>2017.825897601599</v>
+        <v>3985905.647240315</v>
       </c>
       <c r="I19">
-        <v>-735.3269484550091</v>
+        <v>1115477.650047531</v>
       </c>
       <c r="J19">
-        <v>1739.191374498199</v>
+        <v>4842400.782948026</v>
       </c>
       <c r="K19">
-        <v>3563.422575523038</v>
+        <v>3987472.885983796</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1104,28 +1110,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>45.78798086546125</v>
+        <v>1116436.156861242</v>
       </c>
       <c r="G20">
-        <v>85.10260033071025</v>
+        <v>4841303.720733126</v>
       </c>
       <c r="H20">
-        <v>2055.225436540028</v>
+        <v>3985934.076107589</v>
       </c>
       <c r="I20">
-        <v>-698.0795772908004</v>
+        <v>1115522.431135859</v>
       </c>
       <c r="J20">
-        <v>1667.051581336617</v>
+        <v>4842352.131313721</v>
       </c>
       <c r="K20">
-        <v>3616.534194765365</v>
+        <v>3987519.154723393</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1139,28 +1145,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>43.84573011760599</v>
+        <v>1116433.012674069</v>
       </c>
       <c r="G21">
-        <v>102.3155707381972</v>
+        <v>4841320.233543865</v>
       </c>
       <c r="H21">
-        <v>2089.385645000551</v>
+        <v>3985960.042631775</v>
       </c>
       <c r="I21">
-        <v>-659.9150238786266</v>
+        <v>1115568.314917289</v>
       </c>
       <c r="J21">
-        <v>1594.911788175036</v>
+        <v>4842303.479679417</v>
       </c>
       <c r="K21">
-        <v>3652.256761403747</v>
+        <v>3987550.274808924</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1174,28 +1180,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>42.13090627831891</v>
+        <v>1116430.236653967</v>
       </c>
       <c r="G22">
-        <v>119.5285411456841</v>
+        <v>4841336.746354604</v>
       </c>
       <c r="H22">
-        <v>2120.823211031428</v>
+        <v>3985983.939567873</v>
       </c>
       <c r="I22">
-        <v>-620.810703449423</v>
+        <v>1115615.328544624</v>
       </c>
       <c r="J22">
-        <v>1522.771995013455</v>
+        <v>4842254.828045113</v>
       </c>
       <c r="K22">
-        <v>3670.590275438185</v>
+        <v>3987566.246240389</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1209,28 +1215,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>40.60240332445408</v>
+        <v>1116427.762256989</v>
       </c>
       <c r="G23">
-        <v>136.741511553171</v>
+        <v>4841353.259165344</v>
       </c>
       <c r="H23">
-        <v>2149.94028052365</v>
+        <v>3986006.072602865</v>
       </c>
       <c r="I23">
-        <v>-580.7434751049655</v>
+        <v>1115663.49983928</v>
       </c>
       <c r="J23">
-        <v>1450.632201851873</v>
+        <v>4842206.176410809</v>
       </c>
       <c r="K23">
-        <v>3671.534736868678</v>
+        <v>3987567.069017789</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1244,28 +1250,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>39.22880202546458</v>
+        <v>1116425.538620525</v>
       </c>
       <c r="G24">
-        <v>153.954481960658</v>
+        <v>4841369.771976084</v>
       </c>
       <c r="H24">
-        <v>2177.055996320894</v>
+        <v>3986026.684329836</v>
       </c>
       <c r="I24">
-        <v>-539.6896281236999</v>
+        <v>1115712.857307751</v>
       </c>
       <c r="J24">
-        <v>1378.492408690292</v>
+        <v>4842157.524776504</v>
       </c>
       <c r="K24">
-        <v>3655.090145695227</v>
+        <v>3987552.743141123</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1279,28 +1285,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>37.98562357238102</v>
+        <v>1116423.526117377</v>
       </c>
       <c r="G25">
-        <v>171.1674523681449</v>
+        <v>4841386.284786822</v>
       </c>
       <c r="H25">
-        <v>2202.42787763497</v>
+        <v>3986045.970499314</v>
       </c>
       <c r="I25">
-        <v>-497.624867929367</v>
+        <v>1115763.430158475</v>
       </c>
       <c r="J25">
-        <v>1306.352615528711</v>
+        <v>4842108.8731422</v>
       </c>
       <c r="K25">
-        <v>3621.256501917831</v>
+        <v>3987523.268610392</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1314,28 +1320,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>36.85347746271232</v>
+        <v>1116421.693357482</v>
       </c>
       <c r="G26">
-        <v>188.3804227756318</v>
+        <v>4841402.797597563</v>
       </c>
       <c r="H26">
-        <v>2226.266730465748</v>
+        <v>3986064.091353269</v>
       </c>
       <c r="I26">
-        <v>-454.5243017141187</v>
+        <v>1115815.248319122</v>
       </c>
       <c r="J26">
-        <v>1234.212822367129</v>
+        <v>4842060.221507896</v>
       </c>
       <c r="K26">
-        <v>3570.033805536492</v>
+        <v>3987478.645425596</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1349,28 +1355,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>35.81677908887293</v>
+        <v>1116420.015111904</v>
       </c>
       <c r="G27">
-        <v>205.5933931831187</v>
+        <v>4841419.310408302</v>
       </c>
       <c r="H27">
-        <v>2248.747304457792</v>
+        <v>3986081.179725811</v>
       </c>
       <c r="I27">
-        <v>-410.3624237076138</v>
+        <v>1115868.342454302</v>
       </c>
       <c r="J27">
-        <v>1162.073029205548</v>
+        <v>4842011.569873591</v>
       </c>
       <c r="K27">
-        <v>3501.422056551208</v>
+        <v>3987418.873586734</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1384,28 +1390,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>34.86284107809544</v>
+        <v>1116418.470841855</v>
       </c>
       <c r="G28">
-        <v>222.8063635906057</v>
+        <v>4841435.823219041</v>
       </c>
       <c r="H28">
-        <v>2270.016074050575</v>
+        <v>3986097.346957948</v>
       </c>
       <c r="I28">
-        <v>-365.1131000833817</v>
+        <v>1115922.743983716</v>
       </c>
       <c r="J28">
-        <v>1089.933236043966</v>
+        <v>4841962.918239287</v>
       </c>
       <c r="K28">
-        <v>3415.42125496198</v>
+        <v>3987343.953093806</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1419,28 +1425,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>33.98121622849081</v>
+        <v>1116417.04363502</v>
       </c>
       <c r="G29">
-        <v>240.0193339980926</v>
+        <v>4841452.336029781</v>
       </c>
       <c r="H29">
-        <v>2290.197027627592</v>
+        <v>3986112.68729815</v>
       </c>
       <c r="I29">
-        <v>-318.7495534935168</v>
+        <v>1115978.485100744</v>
       </c>
       <c r="J29">
-        <v>1017.793442882385</v>
+        <v>4841914.266604983</v>
       </c>
       <c r="K29">
-        <v>3312.031400768807</v>
+        <v>3987253.883946814</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1454,28 +1460,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>33.16321371440636</v>
+        <v>1116415.719422369</v>
       </c>
       <c r="G30">
-        <v>257.2323044055795</v>
+        <v>4841468.84884052</v>
       </c>
       <c r="H30">
-        <v>2309.39604692337</v>
+        <v>3986127.281231306</v>
       </c>
       <c r="I30">
-        <v>-271.2443472225573</v>
+        <v>1116035.598791497</v>
       </c>
       <c r="J30">
-        <v>945.6536497208034</v>
+        <v>4841865.614970679</v>
       </c>
       <c r="K30">
-        <v>3191.252493971689</v>
+        <v>3987148.666145755</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1489,28 +1495,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>32.40153706628467</v>
+        <v>1116414.486392108</v>
       </c>
       <c r="G31">
-        <v>274.4452748130665</v>
+        <v>4841485.361651259</v>
       </c>
       <c r="H31">
-        <v>2327.70426957835</v>
+        <v>3986141.198034739</v>
       </c>
       <c r="I31">
-        <v>-222.569368951164</v>
+        <v>1116094.118854341</v>
       </c>
       <c r="J31">
-        <v>873.5138565592222</v>
+        <v>4841816.963336375</v>
       </c>
       <c r="K31">
-        <v>3053.084534570628</v>
+        <v>3987028.299690632</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1524,28 +1530,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>31.6900093063119</v>
+        <v>1116413.334544717</v>
       </c>
       <c r="G32">
-        <v>291.6582452205534</v>
+        <v>4841501.874461999</v>
       </c>
       <c r="H32">
-        <v>2345.20070563558</v>
+        <v>3986154.497767104</v>
       </c>
       <c r="I32">
-        <v>-172.6958141199966</v>
+        <v>1116154.079919895</v>
       </c>
       <c r="J32">
-        <v>801.3740633976407</v>
+        <v>4841768.31170207</v>
       </c>
       <c r="K32">
-        <v>2897.527522565622</v>
+        <v>3986892.784581442</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1559,28 +1565,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>31.02336149496524</v>
+        <v>1116412.255350643</v>
       </c>
       <c r="G33">
-        <v>308.8712156280403</v>
+        <v>4841518.387272738</v>
       </c>
       <c r="H33">
-        <v>2361.954298203543</v>
+        <v>3986167.232834781</v>
       </c>
       <c r="I33">
-        <v>-121.5941688839405</v>
+        <v>1116215.517471526</v>
       </c>
       <c r="J33">
-        <v>729.2342702360595</v>
+        <v>4841719.660067766</v>
       </c>
       <c r="K33">
-        <v>2724.581457956672</v>
+        <v>3986742.120818187</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1594,28 +1600,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>30.39706810402126</v>
+        <v>1116411.241483794</v>
       </c>
       <c r="G34">
-        <v>326.0841860355272</v>
+        <v>4841534.900083478</v>
       </c>
       <c r="H34">
-        <v>2378.025564222927</v>
+        <v>3986179.449239089</v>
       </c>
       <c r="I34">
-        <v>-69.23419264659795</v>
+        <v>1116278.467866344</v>
       </c>
       <c r="J34">
-        <v>657.094477074478</v>
+        <v>4841671.008433462</v>
       </c>
       <c r="K34">
-        <v>2534.246340743777</v>
+        <v>3986576.308400867</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1629,28 +1635,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>29.80721744056275</v>
+        <v>1116410.286611777</v>
       </c>
       <c r="G35">
-        <v>343.2971564430142</v>
+        <v>4841551.412894216</v>
       </c>
       <c r="H35">
-        <v>2393.46791400284</v>
+        <v>3986191.187579313</v>
       </c>
       <c r="I35">
-        <v>-15.584900164706</v>
+        <v>1116342.968356721</v>
       </c>
       <c r="J35">
-        <v>584.9546839128965</v>
+        <v>4841622.356799157</v>
       </c>
       <c r="K35">
-        <v>2326.522170926938</v>
+        <v>3986395.347329481</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1664,28 +1670,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>29.25040863459668</v>
+        <v>1116409.385229137</v>
       </c>
       <c r="G36">
-        <v>360.5101268505011</v>
+        <v>4841567.925704956</v>
       </c>
       <c r="H36">
-        <v>2408.328722160209</v>
+        <v>3986202.483866772</v>
       </c>
       <c r="I36">
-        <v>39.38545678810863</v>
+        <v>1116409.057112334</v>
       </c>
       <c r="J36">
-        <v>512.8148907513154</v>
+        <v>4841573.705164853</v>
       </c>
       <c r="K36">
-        <v>2101.408948506155</v>
+        <v>3986199.23760403</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1699,28 +1705,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>28.72366898818283</v>
+        <v>1116408.532523563</v>
       </c>
       <c r="G37">
-        <v>377.723097257988</v>
+        <v>4841584.438515697</v>
       </c>
       <c r="H37">
-        <v>2422.650204129448</v>
+        <v>3986213.370191086</v>
       </c>
       <c r="I37">
-        <v>95.70940820908515</v>
+        <v>1116476.773242753</v>
       </c>
       <c r="J37">
-        <v>440.6750975897339</v>
+        <v>4841525.05353055</v>
       </c>
       <c r="K37">
-        <v>1858.906673481427</v>
+        <v>3985987.979224514</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1734,28 +1740,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>28.22438709629775</v>
+        <v>1116407.724267614</v>
       </c>
       <c r="G38">
-        <v>394.936067665475</v>
+        <v>4841600.951326435</v>
       </c>
       <c r="H38">
-        <v>2436.470139121012</v>
+        <v>3986223.875269725</v>
       </c>
       <c r="I38">
-        <v>153.4202851167186</v>
+        <v>1116546.156820587</v>
       </c>
       <c r="J38">
-        <v>368.5353044281527</v>
+        <v>4841476.401896246</v>
       </c>
       <c r="K38">
-        <v>1599.015345852756</v>
+        <v>3985761.572190931</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1769,28 +1775,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>27.75025830302869</v>
+        <v>1116406.95673043</v>
       </c>
       <c r="G39">
-        <v>412.1490380729619</v>
+        <v>4841617.464137175</v>
       </c>
       <c r="H39">
-        <v>2449.822470718887</v>
+        <v>3986234.024904549</v>
       </c>
       <c r="I39">
-        <v>212.5522392751686</v>
+        <v>1116617.248905192</v>
       </c>
       <c r="J39">
-        <v>296.3955112665712</v>
+        <v>4841427.750261941</v>
       </c>
       <c r="K39">
-        <v>1321.734965620139</v>
+        <v>3985520.016503283</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1804,28 +1810,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>27.29923989233433</v>
+        <v>1116406.226605186</v>
       </c>
       <c r="G40">
-        <v>429.3620084804488</v>
+        <v>4841633.976947915</v>
       </c>
       <c r="H40">
-        <v>2462.737809157055</v>
+        <v>3986243.842363605</v>
       </c>
       <c r="I40">
-        <v>273.1402634043707</v>
+        <v>1116690.091566978</v>
       </c>
       <c r="J40">
-        <v>224.2557181049897</v>
+        <v>4841379.098627636</v>
       </c>
       <c r="K40">
-        <v>1027.065532783578</v>
+        <v>3985263.312161571</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1839,28 +1845,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>26.86951402525022</v>
+        <v>1116405.530949097</v>
       </c>
       <c r="G41">
-        <v>446.5749788879357</v>
+        <v>4841650.489758654</v>
       </c>
       <c r="H41">
-        <v>2475.243853978994</v>
+        <v>3986253.348702412</v>
       </c>
       <c r="I41">
-        <v>335.2202118877934</v>
+        <v>1116764.727912296</v>
       </c>
       <c r="J41">
-        <v>152.1159249434085</v>
+        <v>4841330.446993332</v>
       </c>
       <c r="K41">
-        <v>715.0070473430734</v>
+        <v>3984991.459165792</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1874,28 +1880,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>26.45945688952957</v>
+        <v>1116404.867133476</v>
       </c>
       <c r="G42">
-        <v>463.7879492954227</v>
+        <v>4841667.002569393</v>
       </c>
       <c r="H42">
-        <v>2487.365751760297</v>
+        <v>3986262.563035875</v>
       </c>
       <c r="I42">
-        <v>398.8288219901163</v>
+        <v>1116841.202108954</v>
       </c>
       <c r="J42">
-        <v>79.97613178182701</v>
+        <v>4841281.795359029</v>
       </c>
       <c r="K42">
-        <v>385.5595092986234</v>
+        <v>3984704.457515948</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1909,28 +1915,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>26.06761286776701</v>
+        <v>1116404.232801916</v>
       </c>
       <c r="G43">
-        <v>481.0009197029096</v>
+        <v>4841683.515380133</v>
       </c>
       <c r="H43">
-        <v>2499.126400510569</v>
+        <v>3986271.502769676</v>
       </c>
       <c r="I43">
-        <v>464.0037355973601</v>
+        <v>1116919.559412349</v>
       </c>
       <c r="J43">
-        <v>7.836338620245495</v>
+        <v>4841233.143724724</v>
       </c>
       <c r="K43">
-        <v>38.72291865022934</v>
+        <v>3984402.307212038</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1944,28 +1950,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>25.69267278715281</v>
+        <v>1116403.625835079</v>
       </c>
       <c r="G44">
-        <v>498.2138901103966</v>
+        <v>4841700.028190872</v>
       </c>
       <c r="H44">
-        <v>2510.546710016464</v>
+        <v>3986280.183798169</v>
       </c>
       <c r="I44">
-        <v>530.7835214923607</v>
+        <v>1116999.846192253</v>
       </c>
       <c r="J44">
-        <v>-64.30345454133567</v>
+        <v>4841184.49209042</v>
       </c>
       <c r="K44">
-        <v>-325.5027246021081</v>
+        <v>3984085.008254063</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1979,28 +1985,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>25.33345551012438</v>
+        <v>1116403.044320898</v>
       </c>
       <c r="G45">
-        <v>515.4268605178835</v>
+        <v>4841716.541001611</v>
       </c>
       <c r="H45">
-        <v>2521.645825563537</v>
+        <v>3986288.620674443</v>
       </c>
       <c r="I45">
-        <v>599.2076981787495</v>
+        <v>1117082.10996025</v>
       </c>
       <c r="J45">
-        <v>-136.4432477029172</v>
+        <v>4841135.840456116</v>
       </c>
       <c r="K45">
-        <v>-707.1174204583909</v>
+        <v>3983752.560642023</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2014,28 +2020,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>24.98889227604405</v>
+        <v>1116402.486529221</v>
       </c>
       <c r="G46">
-        <v>532.6398309253705</v>
+        <v>4841733.05381235</v>
       </c>
       <c r="H46">
-        <v>2532.441321049697</v>
+        <v>3986296.826757113</v>
       </c>
       <c r="I46">
-        <v>669.3167572669528</v>
+        <v>1117166.399397852</v>
       </c>
       <c r="J46">
-        <v>-208.5830408644987</v>
+        <v>4841087.188821811</v>
       </c>
       <c r="K46">
-        <v>-1106.121168918619</v>
+        <v>3983404.964375917</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2049,28 +2055,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>24.65801332100253</v>
+        <v>1116401.950890161</v>
       </c>
       <c r="G47">
-        <v>549.8528013328573</v>
+        <v>4841749.566623091</v>
       </c>
       <c r="H47">
-        <v>2542.949366381947</v>
+        <v>3986304.814337564</v>
       </c>
       <c r="I47">
-        <v>741.1521874360513</v>
+        <v>1117252.76438531</v>
       </c>
       <c r="J47">
-        <v>-280.7228340260802</v>
+        <v>4841038.537187506</v>
       </c>
       <c r="K47">
-        <v>-1522.513969982791</v>
+        <v>3983042.219455746</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2084,28 +2090,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>24.33993639420959</v>
+        <v>1116401.435975496</v>
       </c>
       <c r="G48">
-        <v>567.0657717403442</v>
+        <v>4841766.07943383</v>
       </c>
       <c r="H48">
-        <v>2553.184873159589</v>
+        <v>3986312.594750689</v>
       </c>
       <c r="I48">
-        <v>814.7564989856795</v>
+        <v>1117341.25603113</v>
       </c>
       <c r="J48">
-        <v>-352.862627187661</v>
+        <v>4840989.885553203</v>
       </c>
       <c r="K48">
-        <v>-1956.295823650904</v>
+        <v>3982664.325881509</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2119,28 +2125,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>24.03385686129944</v>
+        <v>1116400.940482654</v>
       </c>
       <c r="G49">
-        <v>584.2787421478313</v>
+        <v>4841782.592244569</v>
       </c>
       <c r="H49">
-        <v>2563.161621938469</v>
+        <v>3986320.178471636</v>
       </c>
       <c r="I49">
-        <v>890.1732489924932</v>
+        <v>1117431.926702318</v>
       </c>
       <c r="J49">
-        <v>-425.0024203492425</v>
+        <v>4840941.233918899</v>
       </c>
       <c r="K49">
-        <v>-2407.466729922964</v>
+        <v>3982271.283653207</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2154,28 +2160,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>23.73903914178002</v>
+        <v>1116400.463220852</v>
       </c>
       <c r="G50">
-        <v>601.4917125553181</v>
+        <v>4841799.105055309</v>
       </c>
       <c r="H50">
-        <v>2572.892373801939</v>
+        <v>3986327.575200609</v>
       </c>
       <c r="I50">
-        <v>967.4470670860863</v>
+        <v>1117524.830055368</v>
       </c>
       <c r="J50">
-        <v>-497.142213510824</v>
+        <v>4840892.582284594</v>
       </c>
       <c r="K50">
-        <v>-2876.026688798969</v>
+        <v>3981863.092770839</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2189,28 +2195,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>23.45480927319302</v>
+        <v>1116400.003099054</v>
       </c>
       <c r="G51">
-        <v>618.704682962805</v>
+        <v>4841815.617866049</v>
       </c>
       <c r="H51">
-        <v>2582.388968504991</v>
+        <v>3986334.793937471</v>
       </c>
       <c r="I51">
-        <v>1046.623681859625</v>
+        <v>1117620.021068017</v>
       </c>
       <c r="J51">
-        <v>-569.2820066724055</v>
+        <v>4840843.93065029</v>
       </c>
       <c r="K51">
-        <v>-3361.975700278919</v>
+        <v>3981439.753234406</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2224,28 +2230,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>23.18054843089149</v>
+        <v>1116399.559115483</v>
       </c>
       <c r="G52">
-        <v>635.917653370292</v>
+        <v>4841832.130676787</v>
       </c>
       <c r="H52">
-        <v>2591.662411085058</v>
+        <v>3986341.843047588</v>
       </c>
       <c r="I52">
-        <v>1127.749947930813</v>
+        <v>1117717.556071779</v>
       </c>
       <c r="J52">
-        <v>-641.4217998339871</v>
+        <v>4840795.279015986</v>
       </c>
       <c r="K52">
-        <v>-3865.313764362812</v>
+        <v>3981001.265043906</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2259,28 +2265,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>22.91568726162851</v>
+        <v>1116399.13034845</v>
       </c>
       <c r="G53">
-        <v>653.1306237777789</v>
+        <v>4841848.643487527</v>
       </c>
       <c r="H53">
-        <v>2600.722948528604</v>
+        <v>3986348.730320097</v>
       </c>
       <c r="I53">
-        <v>1210.873873669206</v>
+        <v>1117817.492785278</v>
       </c>
       <c r="J53">
-        <v>-713.5615929955678</v>
+        <v>4840746.627381682</v>
       </c>
       <c r="K53">
-        <v>-4386.040881050646</v>
+        <v>3980547.628199343</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2294,28 +2300,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>22.65970091288755</v>
+        <v>1116398.715948304</v>
       </c>
       <c r="G54">
-        <v>670.3435941852658</v>
+        <v>4841865.156298267</v>
       </c>
       <c r="H54">
-        <v>2609.580137832905</v>
+        <v>3986355.463019652</v>
       </c>
       <c r="I54">
-        <v>1296.044649606299</v>
+        <v>1117919.890348407</v>
       </c>
       <c r="J54">
-        <v>-785.7013861571494</v>
+        <v>4840697.975747377</v>
       </c>
       <c r="K54">
-        <v>-4924.157050342429</v>
+        <v>3980078.842700713</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2329,28 +2335,28 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>172.2375460974333</v>
+        <v>1116578.204285539</v>
       </c>
       <c r="G55">
-        <v>-142.3184047273118</v>
+        <v>4841119.0068794</v>
       </c>
       <c r="H55">
-        <v>598.9818255930896</v>
+        <v>3985227.493365909</v>
       </c>
       <c r="I55">
-        <v>-1205.205087228508</v>
+        <v>1114863.312621321</v>
       </c>
       <c r="J55">
-        <v>1193.104490188794</v>
+        <v>4843227.867932046</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984363.501618658</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2364,28 +2370,28 @@
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>172.2375460974333</v>
+        <v>1116578.204285539</v>
       </c>
       <c r="G56">
-        <v>-142.3184047273118</v>
+        <v>4841119.0068794</v>
       </c>
       <c r="H56">
-        <v>598.9818255930896</v>
+        <v>3985227.493365909</v>
       </c>
       <c r="I56">
-        <v>-1181.411129662058</v>
+        <v>1114892.926669721</v>
       </c>
       <c r="J56">
-        <v>1164.081275999622</v>
+        <v>4843179.216297669</v>
       </c>
       <c r="K56">
-        <v>218.8485589254079</v>
+        <v>3984667.297090665</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2399,28 +2405,28 @@
         <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>172.2375460974333</v>
+        <v>1116578.204285539</v>
       </c>
       <c r="G57">
-        <v>-142.3184047273118</v>
+        <v>4841119.0068794</v>
       </c>
       <c r="H57">
-        <v>598.9818255930896</v>
+        <v>3985227.493365909</v>
       </c>
       <c r="I57">
-        <v>-1157.031267780573</v>
+        <v>1114923.269936817</v>
       </c>
       <c r="J57">
-        <v>1135.058061810449</v>
+        <v>4843130.564663292</v>
       </c>
       <c r="K57">
-        <v>426.7843255370143</v>
+        <v>3984955.943927888</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2434,28 +2440,28 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>172.2375460974333</v>
+        <v>1116578.204285539</v>
       </c>
       <c r="G58">
-        <v>-142.3184047273118</v>
+        <v>4841119.0068794</v>
       </c>
       <c r="H58">
-        <v>598.9818255930896</v>
+        <v>3985227.493365909</v>
       </c>
       <c r="I58">
-        <v>-1132.051074229318</v>
+        <v>1114954.360378952</v>
       </c>
       <c r="J58">
-        <v>1106.034847621276</v>
+        <v>4843081.913028915</v>
       </c>
       <c r="K58">
-        <v>623.8072998348208</v>
+        <v>3985229.442130329</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2469,28 +2475,28 @@
         <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>172.2375460974333</v>
+        <v>1116578.204285539</v>
       </c>
       <c r="G59">
-        <v>-142.3184047273118</v>
+        <v>4841119.0068794</v>
       </c>
       <c r="H59">
-        <v>598.9818255930896</v>
+        <v>3985227.493365909</v>
       </c>
       <c r="I59">
-        <v>-1106.45576639322</v>
+        <v>1114986.21639462</v>
       </c>
       <c r="J59">
-        <v>1077.011633432103</v>
+        <v>4843033.26139454</v>
       </c>
       <c r="K59">
-        <v>809.9174818188261</v>
+        <v>3985487.791697987</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2504,28 +2510,28 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>172.2375460974333</v>
+        <v>1116578.204285539</v>
       </c>
       <c r="G60">
-        <v>-142.3184047273118</v>
+        <v>4841119.0068794</v>
       </c>
       <c r="H60">
-        <v>598.9818255930896</v>
+        <v>3985227.493365909</v>
       </c>
       <c r="I60">
-        <v>-1080.23019764891</v>
+        <v>1115018.856835368</v>
       </c>
       <c r="J60">
-        <v>1047.98841924293</v>
+        <v>4842984.609760163</v>
       </c>
       <c r="K60">
-        <v>985.1148714890318</v>
+        <v>3985730.992630863</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2539,28 +2545,28 @@
         <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>172.2375460974333</v>
+        <v>1116578.204285539</v>
       </c>
       <c r="G61">
-        <v>-142.3184047273118</v>
+        <v>4841119.0068794</v>
       </c>
       <c r="H61">
-        <v>598.9818255930896</v>
+        <v>3985227.493365909</v>
       </c>
       <c r="I61">
-        <v>-1053.358848401352</v>
+        <v>1115052.30101694</v>
       </c>
       <c r="J61">
-        <v>1018.965205053757</v>
+        <v>4842935.958125786</v>
       </c>
       <c r="K61">
-        <v>1149.399468845437</v>
+        <v>3985959.044928956</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2574,28 +2580,28 @@
         <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>172.2375460974333</v>
+        <v>1116578.204285539</v>
       </c>
       <c r="G62">
-        <v>-142.3184047273118</v>
+        <v>4841119.0068794</v>
       </c>
       <c r="H62">
-        <v>598.9818255930896</v>
+        <v>3985227.493365909</v>
       </c>
       <c r="I62">
-        <v>-1025.82581689976</v>
+        <v>1115086.568730716</v>
       </c>
       <c r="J62">
-        <v>989.9419908645843</v>
+        <v>4842887.306491409</v>
       </c>
       <c r="K62">
-        <v>1302.771273888041</v>
+        <v>3986171.948592266</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2609,28 +2615,28 @@
         <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>172.2375460974333</v>
+        <v>1116578.204285539</v>
       </c>
       <c r="G63">
-        <v>-118.8176301072922</v>
+        <v>4841135.519679658</v>
       </c>
       <c r="H63">
-        <v>598.9818255930896</v>
+        <v>3985227.493365909</v>
       </c>
       <c r="I63">
-        <v>-997.6148098273673</v>
+        <v>1115121.680255417</v>
       </c>
       <c r="J63">
-        <v>960.9187766754116</v>
+        <v>4842838.654857033</v>
       </c>
       <c r="K63">
-        <v>1445.230286616844</v>
+        <v>3986369.703620793</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2644,28 +2650,28 @@
         <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>133.6764283937833</v>
+        <v>1116529.523734829</v>
       </c>
       <c r="G64">
-        <v>-95.31685548727255</v>
+        <v>4841152.032479916</v>
       </c>
       <c r="H64">
-        <v>737.9415785485493</v>
+        <v>3985426.747730936</v>
       </c>
       <c r="I64">
-        <v>-968.7091326594667</v>
+        <v>1115157.656369113</v>
       </c>
       <c r="J64">
-        <v>931.8955624862388</v>
+        <v>4842790.003222657</v>
       </c>
       <c r="K64">
-        <v>1576.776507031846</v>
+        <v>3986552.310014538</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2679,28 +2685,28 @@
         <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>111.0237061773716</v>
+        <v>1116500.926353368</v>
       </c>
       <c r="G65">
-        <v>-71.81608086725294</v>
+        <v>4841168.545280174</v>
       </c>
       <c r="H65">
-        <v>820.713114080386</v>
+        <v>3985545.433821001</v>
       </c>
       <c r="I65">
-        <v>-939.0916797840422</v>
+        <v>1115194.51836151</v>
       </c>
       <c r="J65">
-        <v>902.8723482970659</v>
+        <v>4842741.35158828</v>
       </c>
       <c r="K65">
-        <v>1697.409935133049</v>
+        <v>3986719.767773501</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2714,28 +2720,28 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>96.7236460265872</v>
+        <v>1116482.873588179</v>
       </c>
       <c r="G66">
-        <v>-48.31530624723329</v>
+        <v>4841185.058080432</v>
       </c>
       <c r="H66">
-        <v>879.8643362107697</v>
+        <v>3985630.250747884</v>
       </c>
       <c r="I66">
-        <v>-908.7449243791168</v>
+        <v>1115232.288046559</v>
       </c>
       <c r="J66">
-        <v>873.849134107893</v>
+        <v>4842692.699953903</v>
       </c>
       <c r="K66">
-        <v>1807.130570920451</v>
+        <v>3986872.07689768</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2749,28 +2755,28 @@
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>86.75084212478214</v>
+        <v>1116470.283663017</v>
       </c>
       <c r="G67">
-        <v>-24.81453162721366</v>
+        <v>4841201.57088069</v>
       </c>
       <c r="H67">
-        <v>925.925361193409</v>
+        <v>3985696.297643407</v>
       </c>
       <c r="I67">
-        <v>-877.6509080408487</v>
+        <v>1115270.987775353</v>
       </c>
       <c r="J67">
-        <v>844.82591991872</v>
+        <v>4842644.048319527</v>
       </c>
       <c r="K67">
-        <v>1905.938414394052</v>
+        <v>3987009.237387076</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2784,28 +2790,28 @@
         <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>79.31083176263394</v>
+        <v>1116460.89120182</v>
       </c>
       <c r="G68">
-        <v>-1.313757007194039</v>
+        <v>4841218.083680947</v>
       </c>
       <c r="H68">
-        <v>963.6529134729566</v>
+        <v>3985750.395173905</v>
       </c>
       <c r="I68">
-        <v>-845.7912301562211</v>
+        <v>1115310.640449367</v>
       </c>
       <c r="J68">
-        <v>815.8027057295473</v>
+        <v>4842595.39668515</v>
       </c>
       <c r="K68">
-        <v>1993.833465553852</v>
+        <v>3987131.249241691</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2819,28 +2825,28 @@
         <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>73.49378262607908</v>
+        <v>1116453.547608783</v>
       </c>
       <c r="G69">
-        <v>22.1870176128256</v>
+        <v>4841234.596481205</v>
       </c>
       <c r="H69">
-        <v>995.6053962758961</v>
+        <v>3985796.211833308</v>
       </c>
       <c r="I69">
-        <v>-813.1470370140509</v>
+        <v>1115351.269533998</v>
       </c>
       <c r="J69">
-        <v>786.7794915403744</v>
+        <v>4842546.745050773</v>
       </c>
       <c r="K69">
-        <v>2070.815724399852</v>
+        <v>3987238.112461522</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2854,28 +2860,28 @@
         <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>68.78736632137026</v>
+        <v>1116447.606107312</v>
       </c>
       <c r="G70">
-        <v>45.68779223284524</v>
+        <v>4841251.109281463</v>
       </c>
       <c r="H70">
-        <v>1023.318355693063</v>
+        <v>3985835.949440883</v>
       </c>
       <c r="I70">
-        <v>-779.6990106478614</v>
+        <v>1115392.89907246</v>
       </c>
       <c r="J70">
-        <v>757.7562773512016</v>
+        <v>4842498.093416397</v>
       </c>
       <c r="K70">
-        <v>2136.885190932052</v>
+        <v>3987329.827046571</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2889,28 +2895,28 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>64.87936379838568</v>
+        <v>1116442.672544015</v>
       </c>
       <c r="G71">
-        <v>69.18856685286485</v>
+        <v>4841267.622081721</v>
       </c>
       <c r="H71">
-        <v>1047.786156558592</v>
+        <v>3985871.033816189</v>
       </c>
       <c r="I71">
-        <v>-745.4273574040249</v>
+        <v>1115435.553700008</v>
       </c>
       <c r="J71">
-        <v>728.7330631620287</v>
+        <v>4842449.441782021</v>
       </c>
       <c r="K71">
-        <v>2192.041865150451</v>
+        <v>3987406.392996837</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2924,28 +2930,28 @@
         <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>61.56762570081136</v>
+        <v>1116438.491720325</v>
       </c>
       <c r="G72">
-        <v>92.68934147288452</v>
+        <v>4841284.134881978</v>
       </c>
       <c r="H72">
-        <v>1069.689761961375</v>
+        <v>3985902.441392077</v>
       </c>
       <c r="I72">
-        <v>-710.3117962284015</v>
+        <v>1115479.258658518</v>
       </c>
       <c r="J72">
-        <v>699.7098489728558</v>
+        <v>4842400.790147644</v>
       </c>
       <c r="K72">
-        <v>2236.285747055049</v>
+        <v>3987467.81031232</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2959,28 +2965,28 @@
         <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>58.71488642413295</v>
+        <v>1116434.890348599</v>
       </c>
       <c r="G73">
-        <v>116.1901160929041</v>
+        <v>4841300.647682237</v>
       </c>
       <c r="H73">
-        <v>1089.516003636667</v>
+        <v>3985930.870236485</v>
       </c>
       <c r="I73">
-        <v>-674.3315466645521</v>
+        <v>1115524.039811424</v>
       </c>
       <c r="J73">
-        <v>670.686634783683</v>
+        <v>4842352.138513267</v>
       </c>
       <c r="K73">
-        <v>2269.616836645846</v>
+        <v>3987514.078993021</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2994,28 +3000,28 @@
         <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>56.2242976296065</v>
+        <v>1116431.746164993</v>
       </c>
       <c r="G74">
-        <v>139.6908907129238</v>
+        <v>4841317.160482494</v>
       </c>
       <c r="H74">
-        <v>1107.625011604164</v>
+        <v>3985956.836739787</v>
       </c>
       <c r="I74">
-        <v>-637.4653165564159</v>
+        <v>1115569.923659022</v>
       </c>
       <c r="J74">
-        <v>641.6634205945101</v>
+        <v>4842303.486878891</v>
       </c>
       <c r="K74">
-        <v>2292.035133922844</v>
+        <v>3987545.199038939</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3029,28 +3035,28 @@
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>54.02534312106459</v>
+        <v>1116428.970148041</v>
       </c>
       <c r="G75">
-        <v>163.1916653329434</v>
+        <v>4841333.673282752</v>
       </c>
       <c r="H75">
-        <v>1124.290692505665</v>
+        <v>3985980.733656664</v>
       </c>
       <c r="I75">
-        <v>-599.6912894481763</v>
+        <v>1115616.937354155</v>
       </c>
       <c r="J75">
-        <v>612.6402064053374</v>
+        <v>4842254.835244515</v>
       </c>
       <c r="K75">
-        <v>2303.54063888604</v>
+        <v>3987561.170450075</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3064,28 +3070,28 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>52.06531178448251</v>
+        <v>1116426.49575387</v>
       </c>
       <c r="G76">
-        <v>186.692439952963</v>
+        <v>4841350.186083009</v>
       </c>
       <c r="H76">
-        <v>1139.726231900401</v>
+        <v>3986002.866673855</v>
       </c>
       <c r="I76">
-        <v>-560.9871116738641</v>
+        <v>1115665.108718278</v>
       </c>
       <c r="J76">
-        <v>583.6169922161644</v>
+        <v>4842206.183610138</v>
       </c>
       <c r="K76">
-        <v>2304.133351535436</v>
+        <v>3987561.993226427</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3099,28 +3105,28 @@
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>50.30391408277589</v>
+        <v>1116424.272119929</v>
       </c>
       <c r="G77">
-        <v>210.1932145729827</v>
+        <v>4841366.698883268</v>
       </c>
       <c r="H77">
-        <v>1154.10081377639</v>
+        <v>3986023.478384248</v>
       </c>
       <c r="I77">
-        <v>-521.3298791290503</v>
+        <v>1115714.466257927</v>
       </c>
       <c r="J77">
-        <v>554.5937780269915</v>
+        <v>4842157.531975761</v>
       </c>
       <c r="K77">
-        <v>2293.813271871031</v>
+        <v>3987547.667367997</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3134,28 +3140,28 @@
         <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>48.70976032674533</v>
+        <v>1116422.259619063</v>
       </c>
       <c r="G78">
-        <v>233.6939891930023</v>
+        <v>4841383.211683526</v>
       </c>
       <c r="H78">
-        <v>1167.550954205069</v>
+        <v>3986042.764538215</v>
       </c>
       <c r="I78">
-        <v>-480.696123716805</v>
+        <v>1115765.039181581</v>
       </c>
       <c r="J78">
-        <v>525.5705638378188</v>
+        <v>4842108.880341385</v>
       </c>
       <c r="K78">
-        <v>2272.580399892826</v>
+        <v>3987518.192874784</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3169,28 +3175,28 @@
         <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>47.25798566911101</v>
+        <v>1116420.426861248</v>
       </c>
       <c r="G79">
-        <v>257.194763813022</v>
+        <v>4841399.724483783</v>
       </c>
       <c r="H79">
-        <v>1180.188405652341</v>
+        <v>3986060.885377595</v>
       </c>
       <c r="I79">
-        <v>-439.0617994599029</v>
+        <v>1115816.857416953</v>
       </c>
       <c r="J79">
-        <v>496.5473496486458</v>
+        <v>4842060.228707008</v>
       </c>
       <c r="K79">
-        <v>2240.434735600821</v>
+        <v>3987473.569746789</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3204,28 +3210,28 @@
         <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>45.92860564130598</v>
+        <v>1116418.748617573</v>
       </c>
       <c r="G80">
-        <v>280.6955384330415</v>
+        <v>4841416.237284041</v>
       </c>
       <c r="H80">
-        <v>1192.105806390872</v>
+        <v>3986077.973736392</v>
       </c>
       <c r="I80">
-        <v>-396.4022682710506</v>
+        <v>1115869.9516287</v>
       </c>
       <c r="J80">
-        <v>467.5241354594729</v>
+        <v>4842011.577072632</v>
       </c>
       <c r="K80">
-        <v>2197.376278995014</v>
+        <v>3987413.79798401</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3239,28 +3245,28 @@
         <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>44.7053509596235</v>
+        <v>1116417.204349277</v>
       </c>
       <c r="G81">
-        <v>304.1963130530612</v>
+        <v>4841432.750084299</v>
       </c>
       <c r="H81">
-        <v>1203.380805443048</v>
+        <v>3986094.140955526</v>
       </c>
       <c r="I81">
-        <v>-352.6922853727221</v>
+        <v>1115924.353236566</v>
       </c>
       <c r="J81">
-        <v>438.5009212703001</v>
+        <v>4841962.925438255</v>
       </c>
       <c r="K81">
-        <v>2143.405030075407</v>
+        <v>3987338.877586449</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3274,28 +3280,28 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>43.57482495837158</v>
+        <v>1116415.77714406</v>
       </c>
       <c r="G82">
-        <v>327.6970876730809</v>
+        <v>4841449.262884557</v>
       </c>
       <c r="H82">
-        <v>1214.079131524407</v>
+        <v>3986109.48128339</v>
       </c>
       <c r="I82">
-        <v>-307.9059843579686</v>
+        <v>1115980.094433976</v>
       </c>
       <c r="J82">
-        <v>409.4777070811272</v>
+        <v>4841914.273803879</v>
       </c>
       <c r="K82">
-        <v>2078.520988842</v>
+        <v>3987248.808554106</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3309,28 +3315,28 @@
         <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>42.52588320987546</v>
+        <v>1116414.452932911</v>
       </c>
       <c r="G83">
-        <v>351.1978622931005</v>
+        <v>4841465.775684814</v>
       </c>
       <c r="H83">
-        <v>1224.256914654658</v>
+        <v>3986124.075204809</v>
       </c>
       <c r="I83">
-        <v>-262.0168618833684</v>
+        <v>1116037.208207092</v>
       </c>
       <c r="J83">
-        <v>380.4544928919543</v>
+        <v>4841865.622169502</v>
       </c>
       <c r="K83">
-        <v>2002.724155294791</v>
+        <v>3987143.59088698</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3344,28 +3350,28 @@
         <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>41.54916929847182</v>
+        <v>1116413.219904049</v>
       </c>
       <c r="G84">
-        <v>374.6986369131201</v>
+        <v>4841482.288485073</v>
       </c>
       <c r="H84">
-        <v>1233.962468715104</v>
+        <v>3986137.991997048</v>
       </c>
       <c r="I84">
-        <v>-214.9977619850499</v>
+        <v>1116095.728354327</v>
       </c>
       <c r="J84">
-        <v>351.4312787027816</v>
+        <v>4841816.970535125</v>
       </c>
       <c r="K84">
-        <v>1916.014529433783</v>
+        <v>3987023.224585071</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3379,28 +3385,28 @@
         <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>40.63676235619645</v>
+        <v>1116412.068057965</v>
       </c>
       <c r="G85">
-        <v>398.1994115331398</v>
+        <v>4841498.80128533</v>
       </c>
       <c r="H85">
-        <v>1243.237678505739</v>
+        <v>3986151.291718716</v>
       </c>
       <c r="I85">
-        <v>-166.820860008514</v>
+        <v>1116155.68950635</v>
       </c>
       <c r="J85">
-        <v>322.4080645136087</v>
+        <v>4841768.318900749</v>
       </c>
       <c r="K85">
-        <v>1818.392111258974</v>
+        <v>3986887.70964838</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3414,28 +3420,28 @@
         <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>39.78190591159526</v>
+        <v>1116410.988865115</v>
       </c>
       <c r="G86">
-        <v>421.7001861531593</v>
+        <v>4841515.314085588</v>
       </c>
       <c r="H86">
-        <v>1252.119092143716</v>
+        <v>3986164.026776151</v>
       </c>
       <c r="I86">
-        <v>-117.4576461427428</v>
+        <v>1116217.127146579</v>
       </c>
       <c r="J86">
-        <v>293.3848503244359</v>
+        <v>4841719.667266373</v>
       </c>
       <c r="K86">
-        <v>1709.856900770364</v>
+        <v>3986737.046076905</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3449,28 +3455,28 @@
         <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>38.97879678508648</v>
+        <v>1116409.974999416</v>
       </c>
       <c r="G87">
-        <v>445.200960773179</v>
+        <v>4841531.826885846</v>
       </c>
       <c r="H87">
-        <v>1260.638790866548</v>
+        <v>3986176.243170633</v>
       </c>
       <c r="I87">
-        <v>-66.87890854885093</v>
+        <v>1116280.077632176</v>
       </c>
       <c r="J87">
-        <v>264.361636135263</v>
+        <v>4841671.015631996</v>
       </c>
       <c r="K87">
-        <v>1590.408897967954</v>
+        <v>3986571.233870648</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3484,28 +3490,28 @@
         <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>38.22241893095205</v>
+        <v>1116409.020128482</v>
       </c>
       <c r="G88">
-        <v>468.7017353931986</v>
+        <v>4841548.339686103</v>
       </c>
       <c r="H88">
-        <v>1268.825088544575</v>
+        <v>3986187.981501416</v>
       </c>
       <c r="I88">
-        <v>-15.05471607329505</v>
+        <v>1116344.578215568</v>
       </c>
       <c r="J88">
-        <v>235.3384219460901</v>
+        <v>4841622.363997619</v>
       </c>
       <c r="K88">
-        <v>1460.048102851742</v>
+        <v>3986390.273029609</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3519,28 +3525,28 @@
         <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>37.50841134240352</v>
+        <v>1116408.118746865</v>
       </c>
       <c r="G89">
-        <v>492.2025100132183</v>
+        <v>4841564.852486362</v>
       </c>
       <c r="H89">
-        <v>1276.703099407309</v>
+        <v>3986199.27777979</v>
       </c>
       <c r="I89">
-        <v>38.04559946458869</v>
+        <v>1116410.667066487</v>
       </c>
       <c r="J89">
-        <v>206.3152077569173</v>
+        <v>4841573.712363242</v>
       </c>
       <c r="K89">
-        <v>1318.774515421731</v>
+        <v>3986194.163553787</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3554,28 +3560,28 @@
         <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>36.83296206663939</v>
+        <v>1116407.266042258</v>
       </c>
       <c r="G90">
-        <v>515.7032846332379</v>
+        <v>4841581.365286619</v>
       </c>
       <c r="H90">
-        <v>1284.295202698686</v>
+        <v>3986210.164095348</v>
       </c>
       <c r="I90">
-        <v>92.45346142119821</v>
+        <v>1116478.383294558</v>
       </c>
       <c r="J90">
-        <v>177.2919935677444</v>
+        <v>4841525.060728867</v>
       </c>
       <c r="K90">
-        <v>1166.588135677919</v>
+        <v>3985982.905443182</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3589,28 +3595,28 @@
         <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>36.19272244432899</v>
+        <v>1116406.457787227</v>
       </c>
       <c r="G91">
-        <v>539.2040592532576</v>
+        <v>4841597.878086877</v>
       </c>
       <c r="H91">
-        <v>1291.621425931831</v>
+        <v>3986220.669165538</v>
       </c>
       <c r="I91">
-        <v>148.2010669241745</v>
+        <v>1116547.766972449</v>
       </c>
       <c r="J91">
-        <v>148.2687793785716</v>
+        <v>4841476.40909449</v>
       </c>
       <c r="K91">
-        <v>1003.488963620307</v>
+        <v>3985756.498697794</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3624,28 +3630,28 @@
         <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>35.58473716694798</v>
+        <v>1116405.690250913</v>
       </c>
       <c r="G92">
-        <v>562.7048338732773</v>
+        <v>4841614.390887135</v>
       </c>
       <c r="H92">
-        <v>1298.699763277752</v>
+        <v>3986230.818792198</v>
       </c>
       <c r="I92">
-        <v>205.3214059258044</v>
+        <v>1116618.859159575</v>
       </c>
       <c r="J92">
-        <v>119.2455651893987</v>
+        <v>4841427.757460113</v>
       </c>
       <c r="K92">
-        <v>829.4769992488931</v>
+        <v>3985514.943317623</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3659,28 +3665,28 @@
         <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>35.0063868169528</v>
+        <v>1116404.960126497</v>
       </c>
       <c r="G93">
-        <v>586.2056084932968</v>
+        <v>4841630.903687393</v>
       </c>
       <c r="H93">
-        <v>1305.546441832128</v>
+        <v>3986240.636243358</v>
       </c>
       <c r="I93">
-        <v>263.8482807256017</v>
+        <v>1116691.701926406</v>
       </c>
       <c r="J93">
-        <v>90.22235100022581</v>
+        <v>4841379.105825736</v>
       </c>
       <c r="K93">
-        <v>644.5522425636792</v>
+        <v>3985258.239302671</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3694,28 +3700,28 @@
         <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>34.45534034138331</v>
+        <v>1116404.264471198</v>
       </c>
       <c r="G94">
-        <v>609.7063831133164</v>
+        <v>4841647.41648765</v>
       </c>
       <c r="H94">
-        <v>1312.176145675536</v>
+        <v>3986250.142574519</v>
       </c>
       <c r="I94">
-        <v>323.8163259736055</v>
+        <v>1116766.338379356</v>
       </c>
       <c r="J94">
-        <v>61.19913681105304</v>
+        <v>4841330.45419136</v>
       </c>
       <c r="K94">
-        <v>448.7146935646651</v>
+        <v>3984986.386652935</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3729,28 +3735,28 @@
         <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>33.92951549180133</v>
+        <v>1116403.60065633</v>
       </c>
       <c r="G95">
-        <v>633.207157733336</v>
+        <v>4841663.929287909</v>
       </c>
       <c r="H95">
-        <v>1318.602205509348</v>
+        <v>3986259.356900571</v>
       </c>
       <c r="I95">
-        <v>385.2610291662527</v>
+        <v>1116842.812686296</v>
       </c>
       <c r="J95">
-        <v>32.17592262188013</v>
+        <v>4841281.802556984</v>
       </c>
       <c r="K95">
-        <v>241.9643522518498</v>
+        <v>3984699.385368416</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3764,28 +3770,28 @@
         <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>33.42704569953499</v>
+        <v>1116402.966325489</v>
       </c>
       <c r="G96">
-        <v>656.7079323533558</v>
+        <v>4841680.442088166</v>
       </c>
       <c r="H96">
-        <v>1324.836760025247</v>
+        <v>3986268.296627182</v>
       </c>
       <c r="I96">
-        <v>448.218751646928</v>
+        <v>1116921.170102689</v>
       </c>
       <c r="J96">
-        <v>3.152708432707221</v>
+        <v>4841233.150922607</v>
       </c>
       <c r="K96">
-        <v>24.30121862523407</v>
+        <v>3984397.235449115</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3799,28 +3805,28 @@
         <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>32.9462521848831</v>
+        <v>1116402.359359341</v>
       </c>
       <c r="G97">
-        <v>680.2087069733753</v>
+        <v>4841696.954888424</v>
       </c>
       <c r="H97">
-        <v>1330.890893918268</v>
+        <v>3986276.977648693</v>
       </c>
       <c r="I97">
-        <v>512.7267501236466</v>
+        <v>1117001.456998373</v>
       </c>
       <c r="J97">
-        <v>-25.87050575646555</v>
+        <v>4841184.49928823</v>
       </c>
       <c r="K97">
-        <v>-204.2747073151816</v>
+        <v>3984079.936895031</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3834,28 +3840,28 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>32.48562035042237</v>
+        <v>1116401.777845819</v>
       </c>
       <c r="G98">
-        <v>703.7094815933949</v>
+        <v>4841713.467688682</v>
       </c>
       <c r="H98">
-        <v>1336.774756486214</v>
+        <v>3986285.414518182</v>
       </c>
       <c r="I98">
-        <v>578.8231987165844</v>
+        <v>1117083.720885</v>
       </c>
       <c r="J98">
-        <v>-54.89371994563846</v>
+        <v>4841135.847653854</v>
       </c>
       <c r="K98">
-        <v>-443.7634255693985</v>
+        <v>3983747.489706165</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3869,28 +3875,28 @@
         <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>32.04377970201283</v>
+        <v>1116401.220054775</v>
       </c>
       <c r="G99">
-        <v>727.2102562134147</v>
+        <v>4841729.980488939</v>
       </c>
       <c r="H99">
-        <v>1342.497664002949</v>
+        <v>3986293.620594251</v>
       </c>
       <c r="I99">
-        <v>646.5472115485061</v>
+        <v>1117168.010444155</v>
       </c>
       <c r="J99">
-        <v>-83.91693413481137</v>
+        <v>4841087.196019476</v>
       </c>
       <c r="K99">
-        <v>-694.1649361374165</v>
+        <v>3983399.893882516</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3904,28 +3910,28 @@
         <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>31.61948669109186</v>
+        <v>1116400.684416323</v>
       </c>
       <c r="G100">
-        <v>750.7110308334343</v>
+        <v>4841746.493289197</v>
       </c>
       <c r="H100">
-        <v>1348.068188458747</v>
+        <v>3986301.608168277</v>
       </c>
       <c r="I100">
-        <v>715.9388658914644</v>
+        <v>1117254.375556159</v>
       </c>
       <c r="J100">
-        <v>-112.9401483239843</v>
+        <v>4841038.544385101</v>
       </c>
       <c r="K100">
-        <v>-955.4792390192347</v>
+        <v>3983037.149424084</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3939,28 +3945,28 @@
         <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>31.21160998900141</v>
+        <v>1116400.169502242</v>
       </c>
       <c r="G101">
-        <v>774.2118054534538</v>
+        <v>4841763.006089455</v>
       </c>
       <c r="H101">
-        <v>1353.494234789873</v>
+        <v>3986309.388575145</v>
       </c>
       <c r="I101">
-        <v>787.0392258834661</v>
+        <v>1117342.867329591</v>
       </c>
       <c r="J101">
-        <v>-141.9633625131569</v>
+        <v>4840989.892750724</v>
       </c>
       <c r="K101">
-        <v>-1227.706334214851</v>
+        <v>3982659.25633087</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3974,28 +3980,28 @@
         <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>30.81911779624943</v>
+        <v>1116399.674009962</v>
       </c>
       <c r="G102">
-        <v>797.7125800734735</v>
+        <v>4841779.518889713</v>
       </c>
       <c r="H102">
-        <v>1358.783108343886</v>
+        <v>3986316.972289992</v>
       </c>
       <c r="I102">
-        <v>859.89036682914</v>
+        <v>1117433.538131533</v>
       </c>
       <c r="J102">
-        <v>-170.9865767023298</v>
+        <v>4840941.241116348</v>
       </c>
       <c r="K102">
-        <v>-1510.846221724271</v>
+        <v>3982266.214602873</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4009,28 +4015,28 @@
         <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>30.44106686257171</v>
+        <v>1116399.196748702</v>
       </c>
       <c r="G103">
-        <v>821.2133546934931</v>
+        <v>4841796.031689971</v>
       </c>
       <c r="H103">
-        <v>1363.941574025644</v>
+        <v>3986324.369013016</v>
       </c>
       <c r="I103">
-        <v>934.5354000987799</v>
+        <v>1117526.441618558</v>
       </c>
       <c r="J103">
-        <v>-200.0097908915027</v>
+        <v>4840892.58948197</v>
       </c>
       <c r="K103">
-        <v>-1804.898901547491</v>
+        <v>3981858.024240092</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4044,28 +4050,28 @@
         <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>30.07659295179877</v>
+        <v>1116398.736627426</v>
       </c>
       <c r="G104">
-        <v>844.7141293135127</v>
+        <v>4841812.544490229</v>
       </c>
       <c r="H104">
-        <v>1368.975908325459</v>
+        <v>3986331.587744072</v>
       </c>
       <c r="I104">
-        <v>1011.018498640513</v>
+        <v>1117621.632768481</v>
       </c>
       <c r="J104">
-        <v>-229.0330050806756</v>
+        <v>4840843.937847594</v>
       </c>
       <c r="K104">
-        <v>-2109.864373684512</v>
+        <v>3981434.68524253</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4079,28 +4085,28 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>29.72490253213082</v>
+        <v>1116398.292644358</v>
       </c>
       <c r="G105">
-        <v>868.2149039335325</v>
+        <v>4841829.057290486</v>
       </c>
       <c r="H105">
-        <v>1373.891945233215</v>
+        <v>3986338.636848519</v>
       </c>
       <c r="I105">
-        <v>1089.384923120677</v>
+        <v>1117719.167912896</v>
       </c>
       <c r="J105">
-        <v>-258.0562192698486</v>
+        <v>4840795.286213218</v>
       </c>
       <c r="K105">
-        <v>-2425.742638135332</v>
+        <v>3980996.197610185</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4114,28 +4120,28 @@
         <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>29.38526550998012</v>
+        <v>1116397.863877812</v>
       </c>
       <c r="G106">
-        <v>891.715678553552</v>
+        <v>4841845.570090745</v>
       </c>
       <c r="H106">
-        <v>1378.695116880852</v>
+        <v>3986345.524115489</v>
       </c>
       <c r="I106">
-        <v>1169.681048707875</v>
+        <v>1117819.104770512</v>
       </c>
       <c r="J106">
-        <v>-287.0794334590212</v>
+        <v>4840746.634578842</v>
       </c>
       <c r="K106">
-        <v>-2752.533694899952</v>
+        <v>3980542.561343057</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4149,28 +4155,3738 @@
         <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>29.05700885597702</v>
+        <v>1116397.449478135</v>
       </c>
       <c r="G107">
-        <v>915.2164531735716</v>
+        <v>4841862.082891002</v>
       </c>
       <c r="H107">
-        <v>1383.390489623281</v>
+        <v>3986352.256809629</v>
       </c>
       <c r="I107">
-        <v>1251.954392516577</v>
+        <v>1117921.502481306</v>
       </c>
       <c r="J107">
-        <v>-316.1026476481941</v>
+        <v>4840697.982944464</v>
       </c>
       <c r="K107">
-        <v>-3090.237543978374</v>
+        <v>3980073.776441147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>63</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116579.893670767</v>
+      </c>
+      <c r="G108">
+        <v>4841118.653755922</v>
+      </c>
+      <c r="H108">
+        <v>3985227.424280627</v>
+      </c>
+      <c r="I108">
+        <v>1114861.847821926</v>
+      </c>
+      <c r="J108">
+        <v>4843227.380020784</v>
+      </c>
+      <c r="K108">
+        <v>3984367.684686649</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>63</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116579.893670767</v>
+      </c>
+      <c r="G109">
+        <v>4841118.653755922</v>
+      </c>
+      <c r="H109">
+        <v>3985227.424280627</v>
+      </c>
+      <c r="I109">
+        <v>1114891.461831416</v>
+      </c>
+      <c r="J109">
+        <v>4843178.728391309</v>
+      </c>
+      <c r="K109">
+        <v>3984671.480477601</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>63</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116579.893670767</v>
+      </c>
+      <c r="G110">
+        <v>4841118.653755922</v>
+      </c>
+      <c r="H110">
+        <v>3985227.424280627</v>
+      </c>
+      <c r="I110">
+        <v>1114921.805058646</v>
+      </c>
+      <c r="J110">
+        <v>4843130.076761833</v>
+      </c>
+      <c r="K110">
+        <v>3984960.127617867</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>63</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116579.893670767</v>
+      </c>
+      <c r="G111">
+        <v>4841118.653755922</v>
+      </c>
+      <c r="H111">
+        <v>3985227.424280627</v>
+      </c>
+      <c r="I111">
+        <v>1114952.895459931</v>
+      </c>
+      <c r="J111">
+        <v>4843081.425132358</v>
+      </c>
+      <c r="K111">
+        <v>3985233.626107445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>63</v>
+      </c>
+      <c r="B112" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116579.893670767</v>
+      </c>
+      <c r="G112">
+        <v>4841118.653755922</v>
+      </c>
+      <c r="H112">
+        <v>3985227.424280627</v>
+      </c>
+      <c r="I112">
+        <v>1114984.751433745</v>
+      </c>
+      <c r="J112">
+        <v>4843032.773502883</v>
+      </c>
+      <c r="K112">
+        <v>3985491.975946337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>63</v>
+      </c>
+      <c r="B113" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116579.893670767</v>
+      </c>
+      <c r="G113">
+        <v>4841118.653755922</v>
+      </c>
+      <c r="H113">
+        <v>3985227.424280627</v>
+      </c>
+      <c r="I113">
+        <v>1115017.391831607</v>
+      </c>
+      <c r="J113">
+        <v>4842984.121873408</v>
+      </c>
+      <c r="K113">
+        <v>3985735.177134543</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>63</v>
+      </c>
+      <c r="B114" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116579.893670767</v>
+      </c>
+      <c r="G114">
+        <v>4841118.653755922</v>
+      </c>
+      <c r="H114">
+        <v>3985227.424280627</v>
+      </c>
+      <c r="I114">
+        <v>1115050.835969237</v>
+      </c>
+      <c r="J114">
+        <v>4842935.470243932</v>
+      </c>
+      <c r="K114">
+        <v>3985963.229672061</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>63</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116579.893670767</v>
+      </c>
+      <c r="G115">
+        <v>4841118.653755922</v>
+      </c>
+      <c r="H115">
+        <v>3985227.424280627</v>
+      </c>
+      <c r="I115">
+        <v>1115085.103637989</v>
+      </c>
+      <c r="J115">
+        <v>4842886.818614457</v>
+      </c>
+      <c r="K115">
+        <v>3986176.133558893</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>63</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116579.893670767</v>
+      </c>
+      <c r="G116">
+        <v>4841135.166554976</v>
+      </c>
+      <c r="H116">
+        <v>3985227.424280627</v>
+      </c>
+      <c r="I116">
+        <v>1115120.215116558</v>
+      </c>
+      <c r="J116">
+        <v>4842838.166984982</v>
+      </c>
+      <c r="K116">
+        <v>3986373.888795037</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>63</v>
+      </c>
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116531.213046404</v>
+      </c>
+      <c r="G117">
+        <v>4841151.679354029</v>
+      </c>
+      <c r="H117">
+        <v>3985426.678642199</v>
+      </c>
+      <c r="I117">
+        <v>1115156.191182985</v>
+      </c>
+      <c r="J117">
+        <v>4842789.515355507</v>
+      </c>
+      <c r="K117">
+        <v>3986556.495380495</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>63</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116502.615621674</v>
+      </c>
+      <c r="G118">
+        <v>4841168.192153082</v>
+      </c>
+      <c r="H118">
+        <v>3985545.364730206</v>
+      </c>
+      <c r="I118">
+        <v>1115193.053126951</v>
+      </c>
+      <c r="J118">
+        <v>4842740.86372603</v>
+      </c>
+      <c r="K118">
+        <v>3986723.953315267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116484.562829172</v>
+      </c>
+      <c r="G119">
+        <v>4841184.704952136</v>
+      </c>
+      <c r="H119">
+        <v>3985630.181655619</v>
+      </c>
+      <c r="I119">
+        <v>1115230.822762374</v>
+      </c>
+      <c r="J119">
+        <v>4842692.212096555</v>
+      </c>
+      <c r="K119">
+        <v>3986876.262599351</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>63</v>
+      </c>
+      <c r="B120" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116471.972884961</v>
+      </c>
+      <c r="G120">
+        <v>4841201.217751188</v>
+      </c>
+      <c r="H120">
+        <v>3985696.228549997</v>
+      </c>
+      <c r="I120">
+        <v>1115269.522440322</v>
+      </c>
+      <c r="J120">
+        <v>4842643.56046708</v>
+      </c>
+      <c r="K120">
+        <v>3987013.423232749</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>63</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116462.580409554</v>
+      </c>
+      <c r="G121">
+        <v>4841217.730550243</v>
+      </c>
+      <c r="H121">
+        <v>3985750.326079558</v>
+      </c>
+      <c r="I121">
+        <v>1115309.175062236</v>
+      </c>
+      <c r="J121">
+        <v>4842594.908837605</v>
+      </c>
+      <c r="K121">
+        <v>3987135.435215459</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>63</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116455.236805406</v>
+      </c>
+      <c r="G122">
+        <v>4841234.243349295</v>
+      </c>
+      <c r="H122">
+        <v>3985796.142738167</v>
+      </c>
+      <c r="I122">
+        <v>1115349.804093485</v>
+      </c>
+      <c r="J122">
+        <v>4842546.257208129</v>
+      </c>
+      <c r="K122">
+        <v>3987242.298547484</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>63</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116449.295294945</v>
+      </c>
+      <c r="G123">
+        <v>4841250.756148349</v>
+      </c>
+      <c r="H123">
+        <v>3985835.880345053</v>
+      </c>
+      <c r="I123">
+        <v>1115391.433577251</v>
+      </c>
+      <c r="J123">
+        <v>4842497.605578654</v>
+      </c>
+      <c r="K123">
+        <v>3987334.01322882</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116444.361724183</v>
+      </c>
+      <c r="G124">
+        <v>4841267.268947402</v>
+      </c>
+      <c r="H124">
+        <v>3985870.96471975</v>
+      </c>
+      <c r="I124">
+        <v>1115434.088148756</v>
+      </c>
+      <c r="J124">
+        <v>4842448.953949179</v>
+      </c>
+      <c r="K124">
+        <v>3987410.579259471</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>63</v>
+      </c>
+      <c r="B125" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116440.180894168</v>
+      </c>
+      <c r="G125">
+        <v>4841283.781746455</v>
+      </c>
+      <c r="H125">
+        <v>3985902.372295094</v>
+      </c>
+      <c r="I125">
+        <v>1115477.793049843</v>
+      </c>
+      <c r="J125">
+        <v>4842400.302319704</v>
+      </c>
+      <c r="K125">
+        <v>3987471.996639435</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>63</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116436.579516993</v>
+      </c>
+      <c r="G126">
+        <v>4841300.294545509</v>
+      </c>
+      <c r="H126">
+        <v>3985930.80113901</v>
+      </c>
+      <c r="I126">
+        <v>1115522.574143911</v>
+      </c>
+      <c r="J126">
+        <v>4842351.650690228</v>
+      </c>
+      <c r="K126">
+        <v>3987518.265368712</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>63</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116433.43532863</v>
+      </c>
+      <c r="G127">
+        <v>4841316.807344562</v>
+      </c>
+      <c r="H127">
+        <v>3985956.767641861</v>
+      </c>
+      <c r="I127">
+        <v>1115568.457931224</v>
+      </c>
+      <c r="J127">
+        <v>4842302.999060753</v>
+      </c>
+      <c r="K127">
+        <v>3987549.385447301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>63</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116430.659307478</v>
+      </c>
+      <c r="G128">
+        <v>4841333.320143615</v>
+      </c>
+      <c r="H128">
+        <v>3985980.664558324</v>
+      </c>
+      <c r="I128">
+        <v>1115615.471564586</v>
+      </c>
+      <c r="J128">
+        <v>4842254.347431278</v>
+      </c>
+      <c r="K128">
+        <v>3987565.356875205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>63</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116428.184909563</v>
+      </c>
+      <c r="G129">
+        <v>4841349.832942669</v>
+      </c>
+      <c r="H129">
+        <v>3986002.797575131</v>
+      </c>
+      <c r="I129">
+        <v>1115663.642865418</v>
+      </c>
+      <c r="J129">
+        <v>4842205.695801803</v>
+      </c>
+      <c r="K129">
+        <v>3987566.179652421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>63</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116425.961272257</v>
+      </c>
+      <c r="G130">
+        <v>4841366.345741723</v>
+      </c>
+      <c r="H130">
+        <v>3986023.409285167</v>
+      </c>
+      <c r="I130">
+        <v>1115713.000340216</v>
+      </c>
+      <c r="J130">
+        <v>4842157.044172326</v>
+      </c>
+      <c r="K130">
+        <v>3987551.85377895</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>63</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116423.948768347</v>
+      </c>
+      <c r="G131">
+        <v>4841382.858540775</v>
+      </c>
+      <c r="H131">
+        <v>3986042.695438799</v>
+      </c>
+      <c r="I131">
+        <v>1115763.573197423</v>
+      </c>
+      <c r="J131">
+        <v>4842108.392542851</v>
+      </c>
+      <c r="K131">
+        <v>3987522.379254793</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>63</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116422.116007758</v>
+      </c>
+      <c r="G132">
+        <v>4841399.371339829</v>
+      </c>
+      <c r="H132">
+        <v>3986060.816277865</v>
+      </c>
+      <c r="I132">
+        <v>1115815.391364713</v>
+      </c>
+      <c r="J132">
+        <v>4842059.740913376</v>
+      </c>
+      <c r="K132">
+        <v>3987477.756079949</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>63</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116420.437761545</v>
+      </c>
+      <c r="G133">
+        <v>4841415.884138882</v>
+      </c>
+      <c r="H133">
+        <v>3986077.904636367</v>
+      </c>
+      <c r="I133">
+        <v>1115868.4855067</v>
+      </c>
+      <c r="J133">
+        <v>4842011.0892839</v>
+      </c>
+      <c r="K133">
+        <v>3987417.984254418</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>63</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116418.893490911</v>
+      </c>
+      <c r="G134">
+        <v>4841432.396937936</v>
+      </c>
+      <c r="H134">
+        <v>3986094.07185522</v>
+      </c>
+      <c r="I134">
+        <v>1115922.887043088</v>
+      </c>
+      <c r="J134">
+        <v>4841962.437654425</v>
+      </c>
+      <c r="K134">
+        <v>3987343.063778201</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>63</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116417.466283536</v>
+      </c>
+      <c r="G135">
+        <v>4841448.909736989</v>
+      </c>
+      <c r="H135">
+        <v>3986109.412182818</v>
+      </c>
+      <c r="I135">
+        <v>1115978.628167261</v>
+      </c>
+      <c r="J135">
+        <v>4841913.78602495</v>
+      </c>
+      <c r="K135">
+        <v>3987252.994651297</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>63</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116416.142070383</v>
+      </c>
+      <c r="G136">
+        <v>4841465.422536042</v>
+      </c>
+      <c r="H136">
+        <v>3986124.006103984</v>
+      </c>
+      <c r="I136">
+        <v>1116035.741865336</v>
+      </c>
+      <c r="J136">
+        <v>4841865.134395475</v>
+      </c>
+      <c r="K136">
+        <v>3987147.776873706</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>63</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116414.909039655</v>
+      </c>
+      <c r="G137">
+        <v>4841481.935335095</v>
+      </c>
+      <c r="H137">
+        <v>3986137.922895982</v>
+      </c>
+      <c r="I137">
+        <v>1116094.261935683</v>
+      </c>
+      <c r="J137">
+        <v>4841816.482765999</v>
+      </c>
+      <c r="K137">
+        <v>3987027.410445428</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>63</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116413.757191829</v>
+      </c>
+      <c r="G138">
+        <v>4841498.448134149</v>
+      </c>
+      <c r="H138">
+        <v>3986151.222617419</v>
+      </c>
+      <c r="I138">
+        <v>1116154.223008924</v>
+      </c>
+      <c r="J138">
+        <v>4841767.831136524</v>
+      </c>
+      <c r="K138">
+        <v>3986891.895366463</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>63</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116412.677997346</v>
+      </c>
+      <c r="G139">
+        <v>4841514.960933202</v>
+      </c>
+      <c r="H139">
+        <v>3986163.957674633</v>
+      </c>
+      <c r="I139">
+        <v>1116215.660568431</v>
+      </c>
+      <c r="J139">
+        <v>4841719.179507049</v>
+      </c>
+      <c r="K139">
+        <v>3986741.231636812</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>63</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116411.664130113</v>
+      </c>
+      <c r="G140">
+        <v>4841531.473732255</v>
+      </c>
+      <c r="H140">
+        <v>3986176.174068903</v>
+      </c>
+      <c r="I140">
+        <v>1116278.610971319</v>
+      </c>
+      <c r="J140">
+        <v>4841670.527877574</v>
+      </c>
+      <c r="K140">
+        <v>3986575.419256473</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>63</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116410.709257734</v>
+      </c>
+      <c r="G141">
+        <v>4841547.986531308</v>
+      </c>
+      <c r="H141">
+        <v>3986187.912399483</v>
+      </c>
+      <c r="I141">
+        <v>1116343.111469965</v>
+      </c>
+      <c r="J141">
+        <v>4841621.876248098</v>
+      </c>
+      <c r="K141">
+        <v>3986394.458225448</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>63</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116409.807874754</v>
+      </c>
+      <c r="G142">
+        <v>4841564.499330362</v>
+      </c>
+      <c r="H142">
+        <v>3986199.208677661</v>
+      </c>
+      <c r="I142">
+        <v>1116409.20023405</v>
+      </c>
+      <c r="J142">
+        <v>4841573.224618622</v>
+      </c>
+      <c r="K142">
+        <v>3986198.348543736</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>63</v>
+      </c>
+      <c r="B143" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116408.955168856</v>
+      </c>
+      <c r="G143">
+        <v>4841581.012129416</v>
+      </c>
+      <c r="H143">
+        <v>3986210.09499303</v>
+      </c>
+      <c r="I143">
+        <v>1116476.916373151</v>
+      </c>
+      <c r="J143">
+        <v>4841524.572989147</v>
+      </c>
+      <c r="K143">
+        <v>3985987.090211337</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>63</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116408.146912602</v>
+      </c>
+      <c r="G144">
+        <v>4841597.524928468</v>
+      </c>
+      <c r="H144">
+        <v>3986220.600063038</v>
+      </c>
+      <c r="I144">
+        <v>1116546.299959879</v>
+      </c>
+      <c r="J144">
+        <v>4841475.921359672</v>
+      </c>
+      <c r="K144">
+        <v>3985760.683228252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>63</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116407.379375127</v>
+      </c>
+      <c r="G145">
+        <v>4841614.037727522</v>
+      </c>
+      <c r="H145">
+        <v>3986230.749689522</v>
+      </c>
+      <c r="I145">
+        <v>1116617.392053599</v>
+      </c>
+      <c r="J145">
+        <v>4841427.269730196</v>
+      </c>
+      <c r="K145">
+        <v>3985519.127594479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>63</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116406.649249607</v>
+      </c>
+      <c r="G146">
+        <v>4841630.550526576</v>
+      </c>
+      <c r="H146">
+        <v>3986240.567140513</v>
+      </c>
+      <c r="I146">
+        <v>1116690.234724723</v>
+      </c>
+      <c r="J146">
+        <v>4841378.618100721</v>
+      </c>
+      <c r="K146">
+        <v>3985262.42331002</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>63</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116405.953593255</v>
+      </c>
+      <c r="G147">
+        <v>4841647.063325629</v>
+      </c>
+      <c r="H147">
+        <v>3986250.073471508</v>
+      </c>
+      <c r="I147">
+        <v>1116764.871079609</v>
+      </c>
+      <c r="J147">
+        <v>4841329.966471246</v>
+      </c>
+      <c r="K147">
+        <v>3984990.570374874</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>63</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116405.289777382</v>
+      </c>
+      <c r="G148">
+        <v>4841663.576124682</v>
+      </c>
+      <c r="H148">
+        <v>3986259.287797401</v>
+      </c>
+      <c r="I148">
+        <v>1116841.345286071</v>
+      </c>
+      <c r="J148">
+        <v>4841281.314841771</v>
+      </c>
+      <c r="K148">
+        <v>3984703.568789041</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>63</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116404.655445582</v>
+      </c>
+      <c r="G149">
+        <v>4841680.088923736</v>
+      </c>
+      <c r="H149">
+        <v>3986268.227523856</v>
+      </c>
+      <c r="I149">
+        <v>1116919.702599511</v>
+      </c>
+      <c r="J149">
+        <v>4841232.663212295</v>
+      </c>
+      <c r="K149">
+        <v>3984401.418552522</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>63</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116404.048478516</v>
+      </c>
+      <c r="G150">
+        <v>4841696.601722788</v>
+      </c>
+      <c r="H150">
+        <v>3986276.908545217</v>
+      </c>
+      <c r="I150">
+        <v>1116999.989389708</v>
+      </c>
+      <c r="J150">
+        <v>4841184.01158282</v>
+      </c>
+      <c r="K150">
+        <v>3984084.119665315</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>63</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116403.466964114</v>
+      </c>
+      <c r="G151">
+        <v>4841713.114521842</v>
+      </c>
+      <c r="H151">
+        <v>3986285.345414559</v>
+      </c>
+      <c r="I151">
+        <v>1117082.25316825</v>
+      </c>
+      <c r="J151">
+        <v>4841135.359953345</v>
+      </c>
+      <c r="K151">
+        <v>3983751.672127422</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>63</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116402.909172226</v>
+      </c>
+      <c r="G152">
+        <v>4841729.627320895</v>
+      </c>
+      <c r="H152">
+        <v>3986293.551490487</v>
+      </c>
+      <c r="I152">
+        <v>1117166.542616658</v>
+      </c>
+      <c r="J152">
+        <v>4841086.708323869</v>
+      </c>
+      <c r="K152">
+        <v>3983404.075938842</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>63</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116402.373532963</v>
+      </c>
+      <c r="G153">
+        <v>4841746.140119948</v>
+      </c>
+      <c r="H153">
+        <v>3986301.539064374</v>
+      </c>
+      <c r="I153">
+        <v>1117252.907615188</v>
+      </c>
+      <c r="J153">
+        <v>4841038.056694394</v>
+      </c>
+      <c r="K153">
+        <v>3983041.331099576</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>63</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116401.858618103</v>
+      </c>
+      <c r="G154">
+        <v>4841762.652919002</v>
+      </c>
+      <c r="H154">
+        <v>3986309.319471107</v>
+      </c>
+      <c r="I154">
+        <v>1117341.399272353</v>
+      </c>
+      <c r="J154">
+        <v>4840989.405064918</v>
+      </c>
+      <c r="K154">
+        <v>3982663.437609622</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>63</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116401.363125074</v>
+      </c>
+      <c r="G155">
+        <v>4841779.165718055</v>
+      </c>
+      <c r="H155">
+        <v>3986316.903185823</v>
+      </c>
+      <c r="I155">
+        <v>1117432.069955164</v>
+      </c>
+      <c r="J155">
+        <v>4840940.753435443</v>
+      </c>
+      <c r="K155">
+        <v>3982270.395468982</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>63</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116400.885863091</v>
+      </c>
+      <c r="G156">
+        <v>4841795.678517109</v>
+      </c>
+      <c r="H156">
+        <v>3986324.299908719</v>
+      </c>
+      <c r="I156">
+        <v>1117524.973320124</v>
+      </c>
+      <c r="J156">
+        <v>4840892.101805967</v>
+      </c>
+      <c r="K156">
+        <v>3981862.204677655</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>63</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116400.425741119</v>
+      </c>
+      <c r="G157">
+        <v>4841812.191316162</v>
+      </c>
+      <c r="H157">
+        <v>3986331.518639649</v>
+      </c>
+      <c r="I157">
+        <v>1117620.164344977</v>
+      </c>
+      <c r="J157">
+        <v>4840843.450176492</v>
+      </c>
+      <c r="K157">
+        <v>3981438.865235641</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>63</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116399.98175738</v>
+      </c>
+      <c r="G158">
+        <v>4841828.704115215</v>
+      </c>
+      <c r="H158">
+        <v>3986338.567743974</v>
+      </c>
+      <c r="I158">
+        <v>1117717.699361243</v>
+      </c>
+      <c r="J158">
+        <v>4840794.798547017</v>
+      </c>
+      <c r="K158">
+        <v>3981000.37714294</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>63</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116399.552990184</v>
+      </c>
+      <c r="G159">
+        <v>4841845.216914269</v>
+      </c>
+      <c r="H159">
+        <v>3986345.455010825</v>
+      </c>
+      <c r="I159">
+        <v>1117817.636087554</v>
+      </c>
+      <c r="J159">
+        <v>4840746.146917542</v>
+      </c>
+      <c r="K159">
+        <v>3980546.740399553</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>63</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116399.138589881</v>
+      </c>
+      <c r="G160">
+        <v>4841861.729713323</v>
+      </c>
+      <c r="H160">
+        <v>3986352.187704848</v>
+      </c>
+      <c r="I160">
+        <v>1117920.03366381</v>
+      </c>
+      <c r="J160">
+        <v>4840697.495288066</v>
+      </c>
+      <c r="K160">
+        <v>3980077.955005479</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
+      <c r="A161">
+        <v>63</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>17</v>
+      </c>
+      <c r="E161">
+        <v>152.142</v>
+      </c>
+      <c r="F161">
+        <v>1116580.904567429</v>
+      </c>
+      <c r="G161">
+        <v>4841122.04607237</v>
+      </c>
+      <c r="H161">
+        <v>3985225.859970902</v>
+      </c>
+      <c r="I161">
+        <v>1114859.538577174</v>
+      </c>
+      <c r="J161">
+        <v>4843228.746342466</v>
+      </c>
+      <c r="K161">
+        <v>3984365.685501796</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
+      <c r="A162">
+        <v>63</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>16</v>
+      </c>
+      <c r="D162" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162">
+        <v>153.142</v>
+      </c>
+      <c r="F162">
+        <v>1116580.904567429</v>
+      </c>
+      <c r="G162">
+        <v>4841122.04607237</v>
+      </c>
+      <c r="H162">
+        <v>3985225.859970902</v>
+      </c>
+      <c r="I162">
+        <v>1114889.152525324</v>
+      </c>
+      <c r="J162">
+        <v>4843180.094699265</v>
+      </c>
+      <c r="K162">
+        <v>3984669.481140316</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
+      <c r="A163">
+        <v>63</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>17</v>
+      </c>
+      <c r="E163">
+        <v>154.142</v>
+      </c>
+      <c r="F163">
+        <v>1116580.904567429</v>
+      </c>
+      <c r="G163">
+        <v>4841122.04607237</v>
+      </c>
+      <c r="H163">
+        <v>3985225.859970902</v>
+      </c>
+      <c r="I163">
+        <v>1114919.495689703</v>
+      </c>
+      <c r="J163">
+        <v>4843131.443056065</v>
+      </c>
+      <c r="K163">
+        <v>3984958.128135751</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
+      <c r="A164">
+        <v>63</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" t="s">
+        <v>17</v>
+      </c>
+      <c r="E164">
+        <v>155.142</v>
+      </c>
+      <c r="F164">
+        <v>1116580.904567429</v>
+      </c>
+      <c r="G164">
+        <v>4841122.04607237</v>
+      </c>
+      <c r="H164">
+        <v>3985225.859970902</v>
+      </c>
+      <c r="I164">
+        <v>1114950.586026589</v>
+      </c>
+      <c r="J164">
+        <v>4843082.791412865</v>
+      </c>
+      <c r="K164">
+        <v>3985231.6264881</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
+      <c r="A165">
+        <v>63</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
+      <c r="E165">
+        <v>156.142</v>
+      </c>
+      <c r="F165">
+        <v>1116580.904567429</v>
+      </c>
+      <c r="G165">
+        <v>4841122.04607237</v>
+      </c>
+      <c r="H165">
+        <v>3985225.859970902</v>
+      </c>
+      <c r="I165">
+        <v>1114982.441934418</v>
+      </c>
+      <c r="J165">
+        <v>4843034.139769664</v>
+      </c>
+      <c r="K165">
+        <v>3985489.976197364</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
+      <c r="A166">
+        <v>63</v>
+      </c>
+      <c r="B166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C166" t="s">
+        <v>16</v>
+      </c>
+      <c r="D166" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166">
+        <v>157.142</v>
+      </c>
+      <c r="F166">
+        <v>1116580.904567429</v>
+      </c>
+      <c r="G166">
+        <v>4841122.04607237</v>
+      </c>
+      <c r="H166">
+        <v>3985225.859970902</v>
+      </c>
+      <c r="I166">
+        <v>1115015.082264672</v>
+      </c>
+      <c r="J166">
+        <v>4842985.488126464</v>
+      </c>
+      <c r="K166">
+        <v>3985733.177263541</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
+      <c r="A167">
+        <v>63</v>
+      </c>
+      <c r="B167" t="s">
+        <v>11</v>
+      </c>
+      <c r="C167" t="s">
+        <v>16</v>
+      </c>
+      <c r="D167" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167">
+        <v>158.142</v>
+      </c>
+      <c r="F167">
+        <v>1116580.904567429</v>
+      </c>
+      <c r="G167">
+        <v>4841122.04607237</v>
+      </c>
+      <c r="H167">
+        <v>3985225.859970902</v>
+      </c>
+      <c r="I167">
+        <v>1115048.526333028</v>
+      </c>
+      <c r="J167">
+        <v>4842936.836483262</v>
+      </c>
+      <c r="K167">
+        <v>3985961.229686632</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
+      <c r="A168">
+        <v>63</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168" t="s">
+        <v>16</v>
+      </c>
+      <c r="D168" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168">
+        <v>159.142</v>
+      </c>
+      <c r="F168">
+        <v>1116580.904567429</v>
+      </c>
+      <c r="G168">
+        <v>4841122.04607237</v>
+      </c>
+      <c r="H168">
+        <v>3985225.859970902</v>
+      </c>
+      <c r="I168">
+        <v>1115082.793930801</v>
+      </c>
+      <c r="J168">
+        <v>4842888.184840063</v>
+      </c>
+      <c r="K168">
+        <v>3986174.133466638</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
+      <c r="A169">
+        <v>63</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+      <c r="C169" t="s">
+        <v>16</v>
+      </c>
+      <c r="D169" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169">
+        <v>160.142</v>
+      </c>
+      <c r="F169">
+        <v>1116580.904567429</v>
+      </c>
+      <c r="G169">
+        <v>4841138.558882995</v>
+      </c>
+      <c r="H169">
+        <v>3985225.859970902</v>
+      </c>
+      <c r="I169">
+        <v>1115117.905336642</v>
+      </c>
+      <c r="J169">
+        <v>4842839.533196863</v>
+      </c>
+      <c r="K169">
+        <v>3986371.888603557</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
+      <c r="A170">
+        <v>63</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+      <c r="D170" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170">
+        <v>161.142</v>
+      </c>
+      <c r="F170">
+        <v>1116532.223898993</v>
+      </c>
+      <c r="G170">
+        <v>4841155.071693619</v>
+      </c>
+      <c r="H170">
+        <v>3985425.114254261</v>
+      </c>
+      <c r="I170">
+        <v>1115153.881328551</v>
+      </c>
+      <c r="J170">
+        <v>4842790.881553662</v>
+      </c>
+      <c r="K170">
+        <v>3986554.495097391</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
+      <c r="A171">
+        <v>63</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+      <c r="D171" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171">
+        <v>162.142</v>
+      </c>
+      <c r="F171">
+        <v>1116503.626448373</v>
+      </c>
+      <c r="G171">
+        <v>4841171.584504243</v>
+      </c>
+      <c r="H171">
+        <v>3985543.800295681</v>
+      </c>
+      <c r="I171">
+        <v>1115190.743196163</v>
+      </c>
+      <c r="J171">
+        <v>4842742.229910461</v>
+      </c>
+      <c r="K171">
+        <v>3986721.95294814</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
+      <c r="A172">
+        <v>63</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+      <c r="D172" t="s">
+        <v>17</v>
+      </c>
+      <c r="E172">
+        <v>163.142</v>
+      </c>
+      <c r="F172">
+        <v>1116485.573639526</v>
+      </c>
+      <c r="G172">
+        <v>4841188.097314868</v>
+      </c>
+      <c r="H172">
+        <v>3985628.617187801</v>
+      </c>
+      <c r="I172">
+        <v>1115228.512753353</v>
+      </c>
+      <c r="J172">
+        <v>4842693.57826726</v>
+      </c>
+      <c r="K172">
+        <v>3986874.262155802</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
+      <c r="A173">
+        <v>63</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+      <c r="D173" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173">
+        <v>164.142</v>
+      </c>
+      <c r="F173">
+        <v>1116472.983683917</v>
+      </c>
+      <c r="G173">
+        <v>4841204.610125491</v>
+      </c>
+      <c r="H173">
+        <v>3985694.664056254</v>
+      </c>
+      <c r="I173">
+        <v>1115267.212351141</v>
+      </c>
+      <c r="J173">
+        <v>4842644.926624061</v>
+      </c>
+      <c r="K173">
+        <v>3987011.422720378</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
+      <c r="A174">
+        <v>63</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+      <c r="D174" t="s">
+        <v>17</v>
+      </c>
+      <c r="E174">
+        <v>165.142</v>
+      </c>
+      <c r="F174">
+        <v>1116463.591200007</v>
+      </c>
+      <c r="G174">
+        <v>4841221.122936117</v>
+      </c>
+      <c r="H174">
+        <v>3985748.76156458</v>
+      </c>
+      <c r="I174">
+        <v>1115306.864890922</v>
+      </c>
+      <c r="J174">
+        <v>4842596.274980861</v>
+      </c>
+      <c r="K174">
+        <v>3987133.434641868</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
+      <c r="A175">
+        <v>63</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+      <c r="D175" t="s">
+        <v>17</v>
+      </c>
+      <c r="E175">
+        <v>166.142</v>
+      </c>
+      <c r="F175">
+        <v>1116456.24758921</v>
+      </c>
+      <c r="G175">
+        <v>4841237.63574674</v>
+      </c>
+      <c r="H175">
+        <v>3985794.578205205</v>
+      </c>
+      <c r="I175">
+        <v>1115347.493838015</v>
+      </c>
+      <c r="J175">
+        <v>4842547.623337659</v>
+      </c>
+      <c r="K175">
+        <v>3987240.297920273</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176">
+        <v>63</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+      <c r="D176" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176">
+        <v>167.142</v>
+      </c>
+      <c r="F176">
+        <v>1116450.30607337</v>
+      </c>
+      <c r="G176">
+        <v>4841254.148557365</v>
+      </c>
+      <c r="H176">
+        <v>3985834.315796493</v>
+      </c>
+      <c r="I176">
+        <v>1115389.123235553</v>
+      </c>
+      <c r="J176">
+        <v>4842498.971694459</v>
+      </c>
+      <c r="K176">
+        <v>3987332.012555591</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177">
+        <v>63</v>
+      </c>
+      <c r="B177" t="s">
+        <v>11</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" t="s">
+        <v>17</v>
+      </c>
+      <c r="E177">
+        <v>168.142</v>
+      </c>
+      <c r="F177">
+        <v>1116445.372498142</v>
+      </c>
+      <c r="G177">
+        <v>4841270.661367989</v>
+      </c>
+      <c r="H177">
+        <v>3985869.400157418</v>
+      </c>
+      <c r="I177">
+        <v>1115431.777718706</v>
+      </c>
+      <c r="J177">
+        <v>4842450.320051259</v>
+      </c>
+      <c r="K177">
+        <v>3987408.578547825</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178">
+        <v>63</v>
+      </c>
+      <c r="B178" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178">
+        <v>169.142</v>
+      </c>
+      <c r="F178">
+        <v>1116441.191664341</v>
+      </c>
+      <c r="G178">
+        <v>4841287.174178613</v>
+      </c>
+      <c r="H178">
+        <v>3985900.807720433</v>
+      </c>
+      <c r="I178">
+        <v>1115475.482529266</v>
+      </c>
+      <c r="J178">
+        <v>4842401.668408059</v>
+      </c>
+      <c r="K178">
+        <v>3987469.995896971</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
+      <c r="A179">
+        <v>63</v>
+      </c>
+      <c r="B179" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179">
+        <v>170.142</v>
+      </c>
+      <c r="F179">
+        <v>1116437.590283906</v>
+      </c>
+      <c r="G179">
+        <v>4841303.686989238</v>
+      </c>
+      <c r="H179">
+        <v>3985929.23655319</v>
+      </c>
+      <c r="I179">
+        <v>1115520.263530578</v>
+      </c>
+      <c r="J179">
+        <v>4842353.016764858</v>
+      </c>
+      <c r="K179">
+        <v>3987516.264603033</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
+      <c r="A180">
+        <v>63</v>
+      </c>
+      <c r="B180" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180">
+        <v>171.142</v>
+      </c>
+      <c r="F180">
+        <v>1116434.446092696</v>
+      </c>
+      <c r="G180">
+        <v>4841320.199799863</v>
+      </c>
+      <c r="H180">
+        <v>3985955.203045849</v>
+      </c>
+      <c r="I180">
+        <v>1115566.14722285</v>
+      </c>
+      <c r="J180">
+        <v>4842304.365121657</v>
+      </c>
+      <c r="K180">
+        <v>3987547.384666008</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
+      <c r="A181">
+        <v>63</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181">
+        <v>172.142</v>
+      </c>
+      <c r="F181">
+        <v>1116431.67006903</v>
+      </c>
+      <c r="G181">
+        <v>4841336.712610486</v>
+      </c>
+      <c r="H181">
+        <v>3985979.099952932</v>
+      </c>
+      <c r="I181">
+        <v>1115613.160758832</v>
+      </c>
+      <c r="J181">
+        <v>4842255.713478457</v>
+      </c>
+      <c r="K181">
+        <v>3987563.356085897</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
+      <c r="A182">
+        <v>63</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182">
+        <v>173.142</v>
+      </c>
+      <c r="F182">
+        <v>1116429.195668875</v>
+      </c>
+      <c r="G182">
+        <v>4841353.225421111</v>
+      </c>
+      <c r="H182">
+        <v>3986001.232961051</v>
+      </c>
+      <c r="I182">
+        <v>1115661.331959885</v>
+      </c>
+      <c r="J182">
+        <v>4842207.061835257</v>
+      </c>
+      <c r="K182">
+        <v>3987564.178862701</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183">
+        <v>63</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+      <c r="D183" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183">
+        <v>174.142</v>
+      </c>
+      <c r="F183">
+        <v>1116426.972029557</v>
+      </c>
+      <c r="G183">
+        <v>4841369.738231735</v>
+      </c>
+      <c r="H183">
+        <v>3986021.844662996</v>
+      </c>
+      <c r="I183">
+        <v>1115710.689332448</v>
+      </c>
+      <c r="J183">
+        <v>4842158.410192056</v>
+      </c>
+      <c r="K183">
+        <v>3987549.852996419</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
+      <c r="A184">
+        <v>63</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184">
+        <v>175.142</v>
+      </c>
+      <c r="F184">
+        <v>1116424.959523824</v>
+      </c>
+      <c r="G184">
+        <v>4841386.25104236</v>
+      </c>
+      <c r="H184">
+        <v>3986041.130809058</v>
+      </c>
+      <c r="I184">
+        <v>1115761.262084902</v>
+      </c>
+      <c r="J184">
+        <v>4842109.758548856</v>
+      </c>
+      <c r="K184">
+        <v>3987520.378487051</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185">
+        <v>63</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185">
+        <v>176.142</v>
+      </c>
+      <c r="F185">
+        <v>1116423.126761576</v>
+      </c>
+      <c r="G185">
+        <v>4841402.763852984</v>
+      </c>
+      <c r="H185">
+        <v>3986059.251641012</v>
+      </c>
+      <c r="I185">
+        <v>1115813.080144859</v>
+      </c>
+      <c r="J185">
+        <v>4842061.106905656</v>
+      </c>
+      <c r="K185">
+        <v>3987475.755334597</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186">
+        <v>63</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186">
+        <v>177.142</v>
+      </c>
+      <c r="F186">
+        <v>1116421.448513844</v>
+      </c>
+      <c r="G186">
+        <v>4841419.276663608</v>
+      </c>
+      <c r="H186">
+        <v>3986076.339992805</v>
+      </c>
+      <c r="I186">
+        <v>1115866.174176871</v>
+      </c>
+      <c r="J186">
+        <v>4842012.455262454</v>
+      </c>
+      <c r="K186">
+        <v>3987415.983539056</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
+      <c r="A187">
+        <v>63</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187">
+        <v>178.142</v>
+      </c>
+      <c r="F187">
+        <v>1116419.904241812</v>
+      </c>
+      <c r="G187">
+        <v>4841435.789474232</v>
+      </c>
+      <c r="H187">
+        <v>3986092.507205313</v>
+      </c>
+      <c r="I187">
+        <v>1115920.575600576</v>
+      </c>
+      <c r="J187">
+        <v>4841963.803619254</v>
+      </c>
+      <c r="K187">
+        <v>3987341.063100431</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
+      <c r="A188">
+        <v>63</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>17</v>
+      </c>
+      <c r="E188">
+        <v>179.142</v>
+      </c>
+      <c r="F188">
+        <v>1116418.477033144</v>
+      </c>
+      <c r="G188">
+        <v>4841452.302284857</v>
+      </c>
+      <c r="H188">
+        <v>3986107.847526889</v>
+      </c>
+      <c r="I188">
+        <v>1115976.316609291</v>
+      </c>
+      <c r="J188">
+        <v>4841915.151976054</v>
+      </c>
+      <c r="K188">
+        <v>3987250.99401872</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
+      <c r="A189">
+        <v>63</v>
+      </c>
+      <c r="B189" t="s">
+        <v>11</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+      <c r="D189" t="s">
+        <v>17</v>
+      </c>
+      <c r="E189">
+        <v>180.142</v>
+      </c>
+      <c r="F189">
+        <v>1116417.152818793</v>
+      </c>
+      <c r="G189">
+        <v>4841468.815095481</v>
+      </c>
+      <c r="H189">
+        <v>3986122.441442326</v>
+      </c>
+      <c r="I189">
+        <v>1116033.430189064</v>
+      </c>
+      <c r="J189">
+        <v>4841866.500332854</v>
+      </c>
+      <c r="K189">
+        <v>3987145.776293922</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
+      <c r="A190">
+        <v>63</v>
+      </c>
+      <c r="B190" t="s">
+        <v>11</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+      <c r="D190" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190">
+        <v>181.142</v>
+      </c>
+      <c r="F190">
+        <v>1116415.919786949</v>
+      </c>
+      <c r="G190">
+        <v>4841485.327906106</v>
+      </c>
+      <c r="H190">
+        <v>3986136.358228862</v>
+      </c>
+      <c r="I190">
+        <v>1116091.950138197</v>
+      </c>
+      <c r="J190">
+        <v>4841817.848689653</v>
+      </c>
+      <c r="K190">
+        <v>3987025.409926039</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191">
+        <v>63</v>
+      </c>
+      <c r="B191" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+      <c r="D191" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191">
+        <v>182.142</v>
+      </c>
+      <c r="F191">
+        <v>1116414.767938079</v>
+      </c>
+      <c r="G191">
+        <v>4841501.84071673</v>
+      </c>
+      <c r="H191">
+        <v>3986149.657945079</v>
+      </c>
+      <c r="I191">
+        <v>1116151.911087239</v>
+      </c>
+      <c r="J191">
+        <v>4841769.197046452</v>
+      </c>
+      <c r="K191">
+        <v>3986889.89491507</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
+      <c r="A192">
+        <v>63</v>
+      </c>
+      <c r="B192" t="s">
+        <v>11</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192">
+        <v>183.142</v>
+      </c>
+      <c r="F192">
+        <v>1116413.68874262</v>
+      </c>
+      <c r="G192">
+        <v>4841518.353527354</v>
+      </c>
+      <c r="H192">
+        <v>3986162.392997293</v>
+      </c>
+      <c r="I192">
+        <v>1116213.348519488</v>
+      </c>
+      <c r="J192">
+        <v>4841720.545403252</v>
+      </c>
+      <c r="K192">
+        <v>3986739.231261015</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
+      <c r="A193">
+        <v>63</v>
+      </c>
+      <c r="B193" t="s">
+        <v>11</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193">
+        <v>184.142</v>
+      </c>
+      <c r="F193">
+        <v>1116412.674874469</v>
+      </c>
+      <c r="G193">
+        <v>4841534.866337978</v>
+      </c>
+      <c r="H193">
+        <v>3986174.609386768</v>
+      </c>
+      <c r="I193">
+        <v>1116276.298791985</v>
+      </c>
+      <c r="J193">
+        <v>4841671.893760052</v>
+      </c>
+      <c r="K193">
+        <v>3986573.418963874</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
+      <c r="A194">
+        <v>63</v>
+      </c>
+      <c r="B194" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194">
+        <v>185.142</v>
+      </c>
+      <c r="F194">
+        <v>1116411.720001226</v>
+      </c>
+      <c r="G194">
+        <v>4841551.379148602</v>
+      </c>
+      <c r="H194">
+        <v>3986186.34771274</v>
+      </c>
+      <c r="I194">
+        <v>1116340.799157029</v>
+      </c>
+      <c r="J194">
+        <v>4841623.242116851</v>
+      </c>
+      <c r="K194">
+        <v>3986392.458023647</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
+      <c r="A195">
+        <v>63</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+      <c r="D195" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195">
+        <v>186.142</v>
+      </c>
+      <c r="F195">
+        <v>1116410.818617429</v>
+      </c>
+      <c r="G195">
+        <v>4841567.891959227</v>
+      </c>
+      <c r="H195">
+        <v>3986197.643986485</v>
+      </c>
+      <c r="I195">
+        <v>1116406.887784223</v>
+      </c>
+      <c r="J195">
+        <v>4841574.590473651</v>
+      </c>
+      <c r="K195">
+        <v>3986196.348440335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
+      <c r="A196">
+        <v>63</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+      <c r="D196" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196">
+        <v>187.142</v>
+      </c>
+      <c r="F196">
+        <v>1116409.96591076</v>
+      </c>
+      <c r="G196">
+        <v>4841584.404769852</v>
+      </c>
+      <c r="H196">
+        <v>3986208.53029758</v>
+      </c>
+      <c r="I196">
+        <v>1116474.603783061</v>
+      </c>
+      <c r="J196">
+        <v>4841525.93883045</v>
+      </c>
+      <c r="K196">
+        <v>3985985.090213937</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
+      <c r="A197">
+        <v>63</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197">
+        <v>188.142</v>
+      </c>
+      <c r="F197">
+        <v>1116409.157653773</v>
+      </c>
+      <c r="G197">
+        <v>4841600.917580476</v>
+      </c>
+      <c r="H197">
+        <v>3986219.035363465</v>
+      </c>
+      <c r="I197">
+        <v>1116543.987226074</v>
+      </c>
+      <c r="J197">
+        <v>4841477.28718725</v>
+      </c>
+      <c r="K197">
+        <v>3985758.683344452</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
+      <c r="A198">
+        <v>63</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198">
+        <v>189.142</v>
+      </c>
+      <c r="F198">
+        <v>1116408.390115604</v>
+      </c>
+      <c r="G198">
+        <v>4841617.4303911</v>
+      </c>
+      <c r="H198">
+        <v>3986229.184985965</v>
+      </c>
+      <c r="I198">
+        <v>1116615.079172538</v>
+      </c>
+      <c r="J198">
+        <v>4841428.63554405</v>
+      </c>
+      <c r="K198">
+        <v>3985517.127831882</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
+      <c r="A199">
+        <v>63</v>
+      </c>
+      <c r="B199" t="s">
+        <v>11</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199">
+        <v>190.142</v>
+      </c>
+      <c r="F199">
+        <v>1116407.659989422</v>
+      </c>
+      <c r="G199">
+        <v>4841633.943201725</v>
+      </c>
+      <c r="H199">
+        <v>3986239.002433102</v>
+      </c>
+      <c r="I199">
+        <v>1116687.921692781</v>
+      </c>
+      <c r="J199">
+        <v>4841379.983900849</v>
+      </c>
+      <c r="K199">
+        <v>3985260.423676226</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
+      <c r="A200">
+        <v>63</v>
+      </c>
+      <c r="B200" t="s">
+        <v>11</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200">
+        <v>191.142</v>
+      </c>
+      <c r="F200">
+        <v>1116406.96433244</v>
+      </c>
+      <c r="G200">
+        <v>4841650.456012349</v>
+      </c>
+      <c r="H200">
+        <v>3986248.508760366</v>
+      </c>
+      <c r="I200">
+        <v>1116762.557893071</v>
+      </c>
+      <c r="J200">
+        <v>4841331.332257649</v>
+      </c>
+      <c r="K200">
+        <v>3984988.570877485</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
+      <c r="A201">
+        <v>63</v>
+      </c>
+      <c r="B201" t="s">
+        <v>11</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201">
+        <v>192.142</v>
+      </c>
+      <c r="F201">
+        <v>1116406.300515967</v>
+      </c>
+      <c r="G201">
+        <v>4841666.968822974</v>
+      </c>
+      <c r="H201">
+        <v>3986257.723082641</v>
+      </c>
+      <c r="I201">
+        <v>1116839.031941129</v>
+      </c>
+      <c r="J201">
+        <v>4841282.680614448</v>
+      </c>
+      <c r="K201">
+        <v>3984701.569435657</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
+      <c r="A202">
+        <v>63</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+      <c r="D202" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202">
+        <v>193.142</v>
+      </c>
+      <c r="F202">
+        <v>1116405.666183592</v>
+      </c>
+      <c r="G202">
+        <v>4841683.481633598</v>
+      </c>
+      <c r="H202">
+        <v>3986266.662805588</v>
+      </c>
+      <c r="I202">
+        <v>1116917.389092266</v>
+      </c>
+      <c r="J202">
+        <v>4841234.028971247</v>
+      </c>
+      <c r="K202">
+        <v>3984399.419350743</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
+      <c r="A203">
+        <v>63</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+      <c r="D203" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203">
+        <v>194.142</v>
+      </c>
+      <c r="F203">
+        <v>1116405.059215976</v>
+      </c>
+      <c r="G203">
+        <v>4841699.994444222</v>
+      </c>
+      <c r="H203">
+        <v>3986275.343823541</v>
+      </c>
+      <c r="I203">
+        <v>1116997.675716162</v>
+      </c>
+      <c r="J203">
+        <v>4841185.377328048</v>
+      </c>
+      <c r="K203">
+        <v>3984082.120622744</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
+      <c r="A204">
+        <v>63</v>
+      </c>
+      <c r="B204" t="s">
+        <v>11</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+      <c r="D204" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204">
+        <v>195.142</v>
+      </c>
+      <c r="F204">
+        <v>1116404.477701048</v>
+      </c>
+      <c r="G204">
+        <v>4841716.507254846</v>
+      </c>
+      <c r="H204">
+        <v>3986283.780689572</v>
+      </c>
+      <c r="I204">
+        <v>1117079.93932431</v>
+      </c>
+      <c r="J204">
+        <v>4841136.725684847</v>
+      </c>
+      <c r="K204">
+        <v>3983749.673251659</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
+      <c r="A205">
+        <v>63</v>
+      </c>
+      <c r="B205" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+      <c r="D205" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205">
+        <v>196.142</v>
+      </c>
+      <c r="F205">
+        <v>1116403.919908655</v>
+      </c>
+      <c r="G205">
+        <v>4841733.020065471</v>
+      </c>
+      <c r="H205">
+        <v>3986291.986762278</v>
+      </c>
+      <c r="I205">
+        <v>1117164.228598127</v>
+      </c>
+      <c r="J205">
+        <v>4841088.074041646</v>
+      </c>
+      <c r="K205">
+        <v>3983402.077237488</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
+      <c r="A206">
+        <v>63</v>
+      </c>
+      <c r="B206" t="s">
+        <v>11</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+      <c r="D206" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206">
+        <v>197.142</v>
+      </c>
+      <c r="F206">
+        <v>1116403.384268907</v>
+      </c>
+      <c r="G206">
+        <v>4841749.532876095</v>
+      </c>
+      <c r="H206">
+        <v>3986299.97433303</v>
+      </c>
+      <c r="I206">
+        <v>1117250.593417767</v>
+      </c>
+      <c r="J206">
+        <v>4841039.422398446</v>
+      </c>
+      <c r="K206">
+        <v>3983039.332580231</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
+      <c r="A207">
+        <v>63</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+      <c r="D207" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207">
+        <v>198.142</v>
+      </c>
+      <c r="F207">
+        <v>1116402.869353581</v>
+      </c>
+      <c r="G207">
+        <v>4841766.04568672</v>
+      </c>
+      <c r="H207">
+        <v>3986307.754736709</v>
+      </c>
+      <c r="I207">
+        <v>1117339.084891636</v>
+      </c>
+      <c r="J207">
+        <v>4840990.770755245</v>
+      </c>
+      <c r="K207">
+        <v>3982661.439279888</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
+      <c r="A208">
+        <v>63</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+      <c r="D208" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208">
+        <v>199.142</v>
+      </c>
+      <c r="F208">
+        <v>1116402.373860104</v>
+      </c>
+      <c r="G208">
+        <v>4841782.558497343</v>
+      </c>
+      <c r="H208">
+        <v>3986315.338448449</v>
+      </c>
+      <c r="I208">
+        <v>1117429.755386639</v>
+      </c>
+      <c r="J208">
+        <v>4840942.119112046</v>
+      </c>
+      <c r="K208">
+        <v>3982268.39733646</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
+      <c r="A209">
+        <v>63</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+      <c r="D209" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209">
+        <v>200.142</v>
+      </c>
+      <c r="F209">
+        <v>1116401.896597689</v>
+      </c>
+      <c r="G209">
+        <v>4841799.071307968</v>
+      </c>
+      <c r="H209">
+        <v>3986322.73516844</v>
+      </c>
+      <c r="I209">
+        <v>1117522.658559165</v>
+      </c>
+      <c r="J209">
+        <v>4840893.467468844</v>
+      </c>
+      <c r="K209">
+        <v>3981860.206749945</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
+      <c r="A210">
+        <v>63</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+      <c r="D210" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210">
+        <v>201.142</v>
+      </c>
+      <c r="F210">
+        <v>1116401.4364753</v>
+      </c>
+      <c r="G210">
+        <v>4841815.584118593</v>
+      </c>
+      <c r="H210">
+        <v>3986329.953896537</v>
+      </c>
+      <c r="I210">
+        <v>1117617.849386846</v>
+      </c>
+      <c r="J210">
+        <v>4840844.815825644</v>
+      </c>
+      <c r="K210">
+        <v>3981436.867520344</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
+      <c r="A211">
+        <v>63</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+      <c r="D211" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211">
+        <v>202.142</v>
+      </c>
+      <c r="F211">
+        <v>1116400.992491159</v>
+      </c>
+      <c r="G211">
+        <v>4841832.096929217</v>
+      </c>
+      <c r="H211">
+        <v>3986337.002998095</v>
+      </c>
+      <c r="I211">
+        <v>1117715.384201085</v>
+      </c>
+      <c r="J211">
+        <v>4840796.164182444</v>
+      </c>
+      <c r="K211">
+        <v>3980998.379647658</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
+      <c r="A212">
+        <v>63</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+      <c r="D212" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212">
+        <v>203.142</v>
+      </c>
+      <c r="F212">
+        <v>1116400.563723575</v>
+      </c>
+      <c r="G212">
+        <v>4841848.609739841</v>
+      </c>
+      <c r="H212">
+        <v>3986343.890262243</v>
+      </c>
+      <c r="I212">
+        <v>1117815.320720394</v>
+      </c>
+      <c r="J212">
+        <v>4840747.512539243</v>
+      </c>
+      <c r="K212">
+        <v>3980544.743131886</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
+      <c r="A213">
+        <v>63</v>
+      </c>
+      <c r="B213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213">
+        <v>204.142</v>
+      </c>
+      <c r="F213">
+        <v>1116400.149322897</v>
+      </c>
+      <c r="G213">
+        <v>4841865.122550466</v>
+      </c>
+      <c r="H213">
+        <v>3986350.622953623</v>
+      </c>
+      <c r="I213">
+        <v>1117917.718084551</v>
+      </c>
+      <c r="J213">
+        <v>4840698.860896043</v>
+      </c>
+      <c r="K213">
+        <v>3980075.957973029</v>
       </c>
     </row>
   </sheetData>
